--- a/AAII_Financials/Quarterly/BEGI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BEGI_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="92">
   <si>
     <t>BEGI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,75 +665,78 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42551</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -776,19 +779,22 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>4</v>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>4</v>
@@ -796,11 +802,11 @@
       <c r="H9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>4</v>
+      <c r="I9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>4</v>
@@ -820,19 +826,22 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>4</v>
+      <c r="E10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>4</v>
@@ -840,11 +849,11 @@
       <c r="H10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>4</v>
+      <c r="I10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>4</v>
@@ -864,8 +873,11 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -882,8 +894,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -926,8 +939,11 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -970,31 +986,34 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1014,8 +1033,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1055,11 +1077,14 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1073,34 +1098,35 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
         <v>100</v>
       </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
       <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
         <v>200</v>
       </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
       <c r="I17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J17" s="3">
         <v>100</v>
       </c>
       <c r="K17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L17" s="3">
         <v>0</v>
@@ -1117,8 +1143,11 @@
       <c r="P17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1126,25 +1155,25 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
       <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
         <v>-200</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
       <c r="I18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J18" s="3">
         <v>-100</v>
       </c>
       <c r="K18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L18" s="3">
         <v>0</v>
@@ -1161,8 +1190,11 @@
       <c r="P18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1179,8 +1211,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1188,17 +1221,17 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1209,11 +1242,11 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1223,8 +1256,11 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1232,32 +1268,32 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
         <v>-300</v>
       </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-300</v>
-      </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
       <c r="I21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J21" s="3">
         <v>-100</v>
       </c>
       <c r="K21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
         <v>-100</v>
       </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
       <c r="N21" s="3">
         <v>0</v>
       </c>
@@ -1267,16 +1303,19 @@
       <c r="P21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
       </c>
-      <c r="E22" s="3">
-        <v>100</v>
+      <c r="E22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>4</v>
@@ -1284,8 +1323,8 @@
       <c r="G22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
+      <c r="H22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>4</v>
@@ -1293,8 +1332,8 @@
       <c r="J22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1311,41 +1350,44 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>-400</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
       <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
         <v>-300</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J23" s="3">
         <v>-100</v>
       </c>
       <c r="K23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>-100</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
         <v>0</v>
       </c>
@@ -1355,8 +1397,11 @@
       <c r="P23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1399,8 +1444,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1443,41 +1491,44 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>-400</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
       <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
         <v>-300</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J26" s="3">
         <v>-100</v>
       </c>
       <c r="K26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>-100</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
         <v>0</v>
       </c>
@@ -1487,41 +1538,44 @@
       <c r="P26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>-400</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
       <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
         <v>-300</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J27" s="3">
         <v>-100</v>
       </c>
       <c r="K27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>-100</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
         <v>0</v>
       </c>
@@ -1531,8 +1585,11 @@
       <c r="P27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1575,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1619,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1663,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1707,8 +1773,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1716,17 +1785,17 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -1737,11 +1806,11 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -1751,41 +1820,44 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>-400</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
       <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
         <v>-300</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J33" s="3">
         <v>-100</v>
       </c>
       <c r="K33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
         <v>0</v>
       </c>
@@ -1795,8 +1867,11 @@
       <c r="P33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1839,41 +1914,44 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>-400</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
       <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
         <v>-300</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J35" s="3">
         <v>-100</v>
       </c>
       <c r="K35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
         <v>0</v>
       </c>
@@ -1883,57 +1961,63 @@
       <c r="P35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42551</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1950,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1968,8 +2053,9 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2006,14 +2092,17 @@
       <c r="N41" s="3">
         <v>0</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>4</v>
+      <c r="O41" s="3">
+        <v>0</v>
       </c>
       <c r="P41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2056,8 +2145,11 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2082,26 +2174,29 @@
       <c r="J43" s="3">
         <v>0</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>4</v>
+      <c r="K43" s="3">
+        <v>0</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
+      <c r="M43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>4</v>
+      <c r="O43" s="3">
+        <v>0</v>
       </c>
       <c r="P43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2144,8 +2239,11 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2155,8 +2253,8 @@
       <c r="E45" s="3">
         <v>0</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>4</v>
+      <c r="F45" s="3">
+        <v>0</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>4</v>
@@ -2170,8 +2268,8 @@
       <c r="J45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
+      <c r="K45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
@@ -2188,8 +2286,11 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2226,14 +2327,17 @@
       <c r="N46" s="3">
         <v>0</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>4</v>
+      <c r="O46" s="3">
+        <v>0</v>
       </c>
       <c r="P46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2246,11 +2350,11 @@
       <c r="F47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G47" s="3">
-        <v>0</v>
+      <c r="G47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I47" s="3">
         <v>100</v>
@@ -2265,19 +2369,22 @@
         <v>100</v>
       </c>
       <c r="M47" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="N47" s="3">
         <v>500</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>4</v>
+      <c r="O47" s="3">
+        <v>500</v>
       </c>
       <c r="P47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2314,14 +2421,17 @@
       <c r="N48" s="3">
         <v>0</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>4</v>
+      <c r="O48" s="3">
+        <v>0</v>
       </c>
       <c r="P48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2364,8 +2474,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2408,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2452,8 +2568,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2496,8 +2615,11 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2540,8 +2662,11 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2558,34 +2683,37 @@
         <v>0</v>
       </c>
       <c r="H54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I54" s="3">
         <v>100</v>
       </c>
       <c r="J54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K54" s="3">
         <v>200</v>
       </c>
       <c r="L54" s="3">
+        <v>200</v>
+      </c>
+      <c r="M54" s="3">
         <v>100</v>
-      </c>
-      <c r="M54" s="3">
-        <v>500</v>
       </c>
       <c r="N54" s="3">
         <v>500</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>4</v>
+      <c r="O54" s="3">
+        <v>500</v>
       </c>
       <c r="P54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2602,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2620,8 +2749,9 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2632,7 +2762,7 @@
         <v>100</v>
       </c>
       <c r="F57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G57" s="3">
         <v>0</v>
@@ -2658,14 +2788,17 @@
       <c r="N57" s="3">
         <v>0</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>4</v>
+      <c r="O57" s="3">
+        <v>0</v>
       </c>
       <c r="P57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2676,13 +2809,13 @@
         <v>200</v>
       </c>
       <c r="F58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G58" s="3">
         <v>100</v>
       </c>
       <c r="H58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
@@ -2697,19 +2830,22 @@
         <v>0</v>
       </c>
       <c r="M58" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="N58" s="3">
         <v>400</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>4</v>
+      <c r="O58" s="3">
+        <v>400</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2725,8 +2861,8 @@
       <c r="G59" s="3">
         <v>0</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>4</v>
+      <c r="H59" s="3">
+        <v>0</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>4</v>
@@ -2734,8 +2870,8 @@
       <c r="J59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
+      <c r="K59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L59" s="3">
         <v>0</v>
@@ -2752,8 +2888,11 @@
       <c r="P59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2764,13 +2903,13 @@
         <v>300</v>
       </c>
       <c r="F60" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="G60" s="3">
         <v>100</v>
       </c>
       <c r="H60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I60" s="3">
         <v>0</v>
@@ -2785,19 +2924,22 @@
         <v>0</v>
       </c>
       <c r="M60" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="N60" s="3">
         <v>400</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>4</v>
+      <c r="O60" s="3">
+        <v>400</v>
       </c>
       <c r="P60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2840,8 +2982,11 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2884,8 +3029,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2928,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2972,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3016,8 +3170,11 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3028,13 +3185,13 @@
         <v>300</v>
       </c>
       <c r="F66" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="G66" s="3">
         <v>100</v>
       </c>
       <c r="H66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I66" s="3">
         <v>0</v>
@@ -3049,19 +3206,22 @@
         <v>0</v>
       </c>
       <c r="M66" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="N66" s="3">
         <v>400</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>4</v>
+      <c r="O66" s="3">
+        <v>400</v>
       </c>
       <c r="P66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3078,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3122,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3166,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3210,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3254,52 +3424,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-4000</v>
+        <v>-4400</v>
       </c>
       <c r="E72" s="3">
         <v>-4000</v>
       </c>
       <c r="F72" s="3">
-        <v>-3500</v>
+        <v>-4000</v>
       </c>
       <c r="G72" s="3">
         <v>-3500</v>
       </c>
       <c r="H72" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="I72" s="3">
         <v>-3300</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-3200</v>
       </c>
       <c r="J72" s="3">
         <v>-3200</v>
       </c>
       <c r="K72" s="3">
-        <v>-3100</v>
+        <v>-3200</v>
       </c>
       <c r="L72" s="3">
         <v>-3100</v>
       </c>
       <c r="M72" s="3">
-        <v>-3000</v>
+        <v>-3100</v>
       </c>
       <c r="N72" s="3">
         <v>-3000</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>4</v>
+      <c r="O72" s="3">
+        <v>-3000</v>
       </c>
       <c r="P72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3342,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3386,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3430,37 +3612,40 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E76" s="3">
         <v>-300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-200</v>
-      </c>
-      <c r="F76" s="3">
-        <v>-100</v>
       </c>
       <c r="G76" s="3">
         <v>-100</v>
       </c>
       <c r="H76" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="I76" s="3">
         <v>100</v>
       </c>
       <c r="J76" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K76" s="3">
         <v>200</v>
       </c>
       <c r="L76" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M76" s="3">
         <v>100</v>
@@ -3468,14 +3653,17 @@
       <c r="N76" s="3">
         <v>100</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>4</v>
+      <c r="O76" s="3">
+        <v>100</v>
       </c>
       <c r="P76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3518,90 +3706,96 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42551</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>-400</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
       <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
         <v>-300</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J81" s="3">
         <v>-100</v>
       </c>
       <c r="K81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
         <v>0</v>
       </c>
@@ -3611,8 +3805,11 @@
       <c r="P81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3629,8 +3826,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3673,8 +3871,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3717,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3761,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3805,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3849,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3893,34 +4106,37 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E89" s="3">
         <v>-100</v>
       </c>
       <c r="F89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
       <c r="I89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J89" s="3">
         <v>-100</v>
       </c>
       <c r="K89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L89" s="3">
         <v>0</v>
@@ -3937,8 +4153,11 @@
       <c r="P89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3955,8 +4174,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3999,8 +4219,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4043,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4087,8 +4313,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4101,12 +4330,12 @@
       <c r="F94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G94" s="3">
+      <c r="G94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H94" s="3">
         <v>100</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
@@ -4114,25 +4343,28 @@
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>300</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-300</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4149,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4193,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4237,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4281,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4325,8 +4567,11 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4334,43 +4579,46 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J100" s="3">
         <v>100</v>
       </c>
       <c r="K100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>-200</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>300</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4413,8 +4661,11 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4455,6 +4706,9 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BEGI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BEGI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="92">
   <si>
     <t>BEGI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,78 +665,82 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42551</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -782,22 +786,25 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>4</v>
+      <c r="D9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>4</v>
@@ -805,11 +812,11 @@
       <c r="I9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>4</v>
+      <c r="J9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>4</v>
@@ -829,22 +836,25 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>4</v>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>4</v>
@@ -852,11 +862,11 @@
       <c r="I10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>4</v>
+      <c r="J10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>4</v>
@@ -876,8 +886,11 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,8 +908,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -942,8 +956,11 @@
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,17 +1006,20 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>300</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1015,8 +1035,8 @@
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1036,8 +1056,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1080,11 +1103,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,37 +1125,38 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>100</v>
+      </c>
+      <c r="E17" s="3">
         <v>500</v>
       </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
       <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
         <v>100</v>
       </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
       <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
         <v>200</v>
       </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
       <c r="J17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K17" s="3">
         <v>100</v>
       </c>
       <c r="L17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M17" s="3">
         <v>0</v>
@@ -1146,8 +1173,11 @@
       <c r="Q17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1155,28 +1185,28 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
       <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
       <c r="J18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K18" s="3">
         <v>-100</v>
       </c>
       <c r="L18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M18" s="3">
         <v>0</v>
@@ -1193,8 +1223,11 @@
       <c r="Q18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,8 +1245,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1221,20 +1255,20 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-300</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1245,11 +1279,11 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
@@ -1259,8 +1293,11 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1268,35 +1305,35 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
         <v>-400</v>
       </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
       <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
         <v>-300</v>
       </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
       <c r="J21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K21" s="3">
         <v>-100</v>
       </c>
       <c r="L21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
         <v>-100</v>
       </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
       <c r="O21" s="3">
         <v>0</v>
       </c>
@@ -1306,16 +1343,19 @@
       <c r="Q21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>4</v>
+      <c r="E22" s="3">
+        <v>0</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>4</v>
@@ -1335,8 +1375,8 @@
       <c r="K22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1353,44 +1393,47 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-400</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
       <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <v>-400</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>-300</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
       <c r="J23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K23" s="3">
         <v>-100</v>
       </c>
       <c r="L23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
         <v>0</v>
       </c>
@@ -1400,8 +1443,11 @@
       <c r="Q23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1447,8 +1493,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,44 +1543,47 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-400</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
       <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>-400</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>-300</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
       <c r="J26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K26" s="3">
         <v>-100</v>
       </c>
       <c r="L26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
         <v>0</v>
       </c>
@@ -1541,44 +1593,47 @@
       <c r="Q26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-400</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
       <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>-400</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>-300</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K27" s="3">
         <v>-100</v>
       </c>
       <c r="L27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
         <v>0</v>
       </c>
@@ -1588,8 +1643,11 @@
       <c r="Q27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1743,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,8 +1843,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1785,20 +1855,20 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>300</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -1809,11 +1879,11 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
@@ -1823,44 +1893,47 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-400</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
       <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>-400</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>-300</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K33" s="3">
         <v>-100</v>
       </c>
       <c r="L33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
         <v>0</v>
       </c>
@@ -1870,8 +1943,11 @@
       <c r="Q33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,44 +1993,47 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-400</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
       <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>-400</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>-300</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K35" s="3">
         <v>-100</v>
       </c>
       <c r="L35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
         <v>0</v>
       </c>
@@ -1964,60 +2043,66 @@
       <c r="Q35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42551</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,8 +2140,9 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2095,14 +2182,17 @@
       <c r="O41" s="3">
         <v>0</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>4</v>
+      <c r="P41" s="3">
+        <v>0</v>
       </c>
       <c r="Q41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,8 +2238,11 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2177,26 +2270,29 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>4</v>
+      <c r="L43" s="3">
+        <v>0</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
+      <c r="N43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>4</v>
+      <c r="P43" s="3">
+        <v>0</v>
       </c>
       <c r="Q43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,8 +2338,11 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2256,8 +2355,8 @@
       <c r="F45" s="3">
         <v>0</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>4</v>
+      <c r="G45" s="3">
+        <v>0</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>4</v>
@@ -2271,8 +2370,8 @@
       <c r="K45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
+      <c r="L45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
@@ -2289,8 +2388,11 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2330,14 +2432,17 @@
       <c r="O46" s="3">
         <v>0</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>4</v>
+      <c r="P46" s="3">
+        <v>0</v>
       </c>
       <c r="Q46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2353,11 +2458,11 @@
       <c r="G47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H47" s="3">
-        <v>0</v>
+      <c r="H47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J47" s="3">
         <v>100</v>
@@ -2372,19 +2477,22 @@
         <v>100</v>
       </c>
       <c r="N47" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="O47" s="3">
         <v>500</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>4</v>
+      <c r="P47" s="3">
+        <v>500</v>
       </c>
       <c r="Q47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2424,14 +2532,17 @@
       <c r="O48" s="3">
         <v>0</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>4</v>
+      <c r="P48" s="3">
+        <v>0</v>
       </c>
       <c r="Q48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2477,8 +2588,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,8 +2688,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2618,8 +2738,11 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,8 +2788,11 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2686,34 +2812,37 @@
         <v>0</v>
       </c>
       <c r="I54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J54" s="3">
         <v>100</v>
       </c>
       <c r="K54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L54" s="3">
         <v>200</v>
       </c>
       <c r="M54" s="3">
+        <v>200</v>
+      </c>
+      <c r="N54" s="3">
         <v>100</v>
-      </c>
-      <c r="N54" s="3">
-        <v>500</v>
       </c>
       <c r="O54" s="3">
         <v>500</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>4</v>
+      <c r="P54" s="3">
+        <v>500</v>
       </c>
       <c r="Q54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,8 +2880,9 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2765,7 +2896,7 @@
         <v>100</v>
       </c>
       <c r="G57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H57" s="3">
         <v>0</v>
@@ -2791,14 +2922,17 @@
       <c r="O57" s="3">
         <v>0</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>4</v>
+      <c r="P57" s="3">
+        <v>0</v>
       </c>
       <c r="Q57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2812,13 +2946,13 @@
         <v>200</v>
       </c>
       <c r="G58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H58" s="3">
         <v>100</v>
       </c>
       <c r="I58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
@@ -2833,24 +2967,27 @@
         <v>0</v>
       </c>
       <c r="N58" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="O58" s="3">
         <v>400</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>4</v>
+      <c r="P58" s="3">
+        <v>400</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E59" s="3">
         <v>0</v>
@@ -2864,8 +3001,8 @@
       <c r="H59" s="3">
         <v>0</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>4</v>
+      <c r="I59" s="3">
+        <v>0</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>4</v>
@@ -2873,8 +3010,8 @@
       <c r="K59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L59" s="3">
-        <v>0</v>
+      <c r="L59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M59" s="3">
         <v>0</v>
@@ -2891,8 +3028,11 @@
       <c r="Q59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2906,13 +3046,13 @@
         <v>300</v>
       </c>
       <c r="G60" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="H60" s="3">
         <v>100</v>
       </c>
       <c r="I60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J60" s="3">
         <v>0</v>
@@ -2927,19 +3067,22 @@
         <v>0</v>
       </c>
       <c r="N60" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="O60" s="3">
         <v>400</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>4</v>
+      <c r="P60" s="3">
+        <v>400</v>
       </c>
       <c r="Q60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2985,8 +3128,11 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3032,8 +3178,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,8 +3328,11 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3188,13 +3346,13 @@
         <v>300</v>
       </c>
       <c r="G66" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="H66" s="3">
         <v>100</v>
       </c>
       <c r="I66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J66" s="3">
         <v>0</v>
@@ -3209,19 +3367,22 @@
         <v>0</v>
       </c>
       <c r="N66" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="O66" s="3">
         <v>400</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>4</v>
+      <c r="P66" s="3">
+        <v>400</v>
       </c>
       <c r="Q66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3598,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-4400</v>
-      </c>
-      <c r="E72" s="3">
-        <v>-4000</v>
       </c>
       <c r="F72" s="3">
         <v>-4000</v>
       </c>
       <c r="G72" s="3">
-        <v>-3500</v>
+        <v>-4000</v>
       </c>
       <c r="H72" s="3">
         <v>-3500</v>
       </c>
       <c r="I72" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="J72" s="3">
         <v>-3300</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-3200</v>
       </c>
       <c r="K72" s="3">
         <v>-3200</v>
       </c>
       <c r="L72" s="3">
-        <v>-3100</v>
+        <v>-3200</v>
       </c>
       <c r="M72" s="3">
         <v>-3100</v>
       </c>
       <c r="N72" s="3">
-        <v>-3000</v>
+        <v>-3100</v>
       </c>
       <c r="O72" s="3">
         <v>-3000</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>4</v>
+      <c r="P72" s="3">
+        <v>-3000</v>
       </c>
       <c r="Q72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,40 +3798,43 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E76" s="3">
         <v>-200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-200</v>
-      </c>
-      <c r="G76" s="3">
-        <v>-100</v>
       </c>
       <c r="H76" s="3">
         <v>-100</v>
       </c>
       <c r="I76" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="J76" s="3">
         <v>100</v>
       </c>
       <c r="K76" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L76" s="3">
         <v>200</v>
       </c>
       <c r="M76" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N76" s="3">
         <v>100</v>
@@ -3656,14 +3842,17 @@
       <c r="O76" s="3">
         <v>100</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>4</v>
+      <c r="P76" s="3">
+        <v>100</v>
       </c>
       <c r="Q76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,96 +3898,102 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42551</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-400</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
       <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>-400</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>-300</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K81" s="3">
         <v>-100</v>
       </c>
       <c r="L81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
         <v>0</v>
       </c>
@@ -3808,8 +4003,11 @@
       <c r="Q81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4025,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3874,8 +4073,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,8 +4323,11 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4118,28 +4335,28 @@
         <v>0</v>
       </c>
       <c r="E89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F89" s="3">
         <v>-100</v>
       </c>
       <c r="G89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K89" s="3">
         <v>-100</v>
       </c>
       <c r="L89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M89" s="3">
         <v>0</v>
@@ -4156,8 +4373,11 @@
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,8 +4395,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4222,8 +4443,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,13 +4543,16 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>4</v>
+      <c r="D94" s="3">
+        <v>0</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>4</v>
@@ -4333,12 +4563,12 @@
       <c r="G94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H94" s="3">
+      <c r="H94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I94" s="3">
         <v>100</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
@@ -4346,25 +4576,28 @@
         <v>0</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>300</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-300</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,8 +4813,11 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4582,43 +4828,46 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K100" s="3">
         <v>100</v>
       </c>
       <c r="L100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>-200</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>300</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,8 +4913,11 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4709,6 +4961,9 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BEGI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BEGI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="92">
   <si>
     <t>BEGI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,82 +665,90 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42551</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -789,16 +797,22 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="3">
-        <v>0</v>
+      <c r="E9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>4</v>
@@ -809,20 +823,20 @@
       <c r="H9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>4</v>
+      <c r="I9" s="3">
+        <v>0</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K9" s="3">
-        <v>0</v>
+      <c r="K9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>4</v>
+      <c r="M9" s="3">
+        <v>0</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>4</v>
@@ -839,16 +853,22 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
+      <c r="E10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>4</v>
@@ -859,20 +879,20 @@
       <c r="H10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>4</v>
+      <c r="I10" s="3">
+        <v>0</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="3">
-        <v>0</v>
+      <c r="K10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>4</v>
+      <c r="M10" s="3">
+        <v>0</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>4</v>
@@ -889,8 +909,14 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,8 +935,10 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -959,8 +987,14 @@
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,22 +1043,28 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E14" s="3">
         <v>300</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>300</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
@@ -1038,11 +1078,11 @@
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1059,8 +1099,14 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1106,11 +1152,17 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,44 +1178,46 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>400</v>
+      </c>
+      <c r="F17" s="3">
         <v>100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>500</v>
       </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
         <v>100</v>
       </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
         <v>200</v>
       </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
         <v>100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>100</v>
       </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
       <c r="O17" s="3">
         <v>0</v>
       </c>
@@ -1176,8 +1230,14 @@
       <c r="R17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+      <c r="T17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1185,35 +1245,35 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G18" s="3">
         <v>-500</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
       <c r="O18" s="3">
         <v>0</v>
       </c>
@@ -1226,8 +1286,14 @@
       <c r="R18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,8 +1312,10 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1255,26 +1323,26 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-300</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1282,22 +1350,28 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1308,7 +1382,7 @@
         <v>-400</v>
       </c>
       <c r="F21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G21" s="3">
         <v>-400</v>
@@ -1317,19 +1391,19 @@
         <v>0</v>
       </c>
       <c r="I21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
         <v>-300</v>
       </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
         <v>-100</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M21" s="3">
-        <v>0</v>
       </c>
       <c r="N21" s="3">
         <v>-100</v>
@@ -1338,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q21" s="3">
         <v>0</v>
@@ -1346,22 +1420,28 @@
       <c r="R21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3">
+        <v>0</v>
+      </c>
+      <c r="T21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>4</v>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>4</v>
@@ -1378,11 +1458,11 @@
       <c r="L22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1396,19 +1476,25 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="E23" s="3">
         <v>-400</v>
       </c>
       <c r="F23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G23" s="3">
         <v>-400</v>
@@ -1417,19 +1503,19 @@
         <v>0</v>
       </c>
       <c r="I23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>-300</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>-100</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M23" s="3">
-        <v>0</v>
       </c>
       <c r="N23" s="3">
         <v>-100</v>
@@ -1438,7 +1524,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q23" s="3">
         <v>0</v>
@@ -1446,8 +1532,14 @@
       <c r="R23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1496,8 +1588,14 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,19 +1644,25 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="E26" s="3">
         <v>-400</v>
       </c>
       <c r="F26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G26" s="3">
         <v>-400</v>
@@ -1567,19 +1671,19 @@
         <v>0</v>
       </c>
       <c r="I26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>-300</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>-100</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M26" s="3">
-        <v>0</v>
       </c>
       <c r="N26" s="3">
         <v>-100</v>
@@ -1588,7 +1692,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q26" s="3">
         <v>0</v>
@@ -1596,19 +1700,25 @@
       <c r="R26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="E27" s="3">
         <v>-400</v>
       </c>
       <c r="F27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G27" s="3">
         <v>-400</v>
@@ -1617,19 +1727,19 @@
         <v>0</v>
       </c>
       <c r="I27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>-300</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>-100</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M27" s="3">
-        <v>0</v>
       </c>
       <c r="N27" s="3">
         <v>-100</v>
@@ -1638,7 +1748,7 @@
         <v>0</v>
       </c>
       <c r="P27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q27" s="3">
         <v>0</v>
@@ -1646,8 +1756,14 @@
       <c r="R27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1812,14 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1868,14 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1924,14 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,8 +1980,14 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1855,26 +1995,26 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>300</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -1882,33 +2022,39 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="E33" s="3">
         <v>-400</v>
       </c>
       <c r="F33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G33" s="3">
         <v>-400</v>
@@ -1917,19 +2063,19 @@
         <v>0</v>
       </c>
       <c r="I33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>-300</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>-100</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M33" s="3">
-        <v>0</v>
       </c>
       <c r="N33" s="3">
         <v>-100</v>
@@ -1938,7 +2084,7 @@
         <v>0</v>
       </c>
       <c r="P33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q33" s="3">
         <v>0</v>
@@ -1946,8 +2092,14 @@
       <c r="R33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,19 +2148,25 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="E35" s="3">
         <v>-400</v>
       </c>
       <c r="F35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G35" s="3">
         <v>-400</v>
@@ -2017,19 +2175,19 @@
         <v>0</v>
       </c>
       <c r="I35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>-300</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>-100</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M35" s="3">
-        <v>0</v>
       </c>
       <c r="N35" s="3">
         <v>-100</v>
@@ -2038,7 +2196,7 @@
         <v>0</v>
       </c>
       <c r="P35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q35" s="3">
         <v>0</v>
@@ -2046,63 +2204,75 @@
       <c r="R35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42551</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2291,10 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,8 +2313,10 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2185,14 +2359,20 @@
       <c r="P41" s="3">
         <v>0</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R41" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,8 +2421,14 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2273,26 +2459,32 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
-      <c r="P43" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2341,8 +2533,14 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2358,11 +2556,11 @@
       <c r="G45" s="3">
         <v>0</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>4</v>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>4</v>
@@ -2373,11 +2571,11 @@
       <c r="L45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
-      <c r="N45" s="3">
-        <v>0</v>
+      <c r="M45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
@@ -2391,8 +2589,14 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2435,40 +2639,46 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R46" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>4</v>
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
       </c>
       <c r="I47" s="3">
         <v>0</v>
       </c>
       <c r="J47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L47" s="3">
         <v>100</v>
@@ -2480,19 +2690,25 @@
         <v>100</v>
       </c>
       <c r="O47" s="3">
+        <v>100</v>
+      </c>
+      <c r="P47" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q47" s="3">
         <v>500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>500</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R47" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2535,14 +2751,20 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R48" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2591,8 +2813,14 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2869,14 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,8 +2925,14 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2741,8 +2981,14 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,8 +3037,14 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2815,34 +3067,40 @@
         <v>0</v>
       </c>
       <c r="J54" s="3">
+        <v>0</v>
+      </c>
+      <c r="K54" s="3">
+        <v>0</v>
+      </c>
+      <c r="L54" s="3">
         <v>100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>500</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R54" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +3119,10 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,8 +3141,10 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2899,10 +3161,10 @@
         <v>100</v>
       </c>
       <c r="H57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J57" s="3">
         <v>0</v>
@@ -2925,14 +3187,20 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R57" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+      <c r="S57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2949,17 +3217,17 @@
         <v>200</v>
       </c>
       <c r="H58" s="3">
+        <v>200</v>
+      </c>
+      <c r="I58" s="3">
+        <v>200</v>
+      </c>
+      <c r="J58" s="3">
         <v>100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>100</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
       <c r="L58" s="3">
         <v>0</v>
       </c>
@@ -2970,31 +3238,37 @@
         <v>0</v>
       </c>
       <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
         <v>400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>400</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R58" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>0</v>
+      </c>
+      <c r="E59" s="3">
+        <v>0</v>
+      </c>
+      <c r="F59" s="3">
         <v>100</v>
       </c>
-      <c r="E59" s="3">
-        <v>0</v>
-      </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
       <c r="G59" s="3">
         <v>0</v>
       </c>
@@ -3004,20 +3278,20 @@
       <c r="I59" s="3">
         <v>0</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>4</v>
+      <c r="J59" s="3">
+        <v>0</v>
+      </c>
+      <c r="K59" s="3">
+        <v>0</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
-      </c>
-      <c r="N59" s="3">
-        <v>0</v>
+      <c r="M59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O59" s="3">
         <v>0</v>
@@ -3031,8 +3305,14 @@
       <c r="R59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3049,17 +3329,17 @@
         <v>300</v>
       </c>
       <c r="H60" s="3">
+        <v>300</v>
+      </c>
+      <c r="I60" s="3">
+        <v>300</v>
+      </c>
+      <c r="J60" s="3">
         <v>100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>100</v>
       </c>
-      <c r="J60" s="3">
-        <v>0</v>
-      </c>
-      <c r="K60" s="3">
-        <v>0</v>
-      </c>
       <c r="L60" s="3">
         <v>0</v>
       </c>
@@ -3070,19 +3350,25 @@
         <v>0</v>
       </c>
       <c r="O60" s="3">
+        <v>0</v>
+      </c>
+      <c r="P60" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="3">
         <v>400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>400</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R60" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3131,8 +3417,14 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3181,8 +3473,14 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3529,14 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3585,14 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,8 +3641,14 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3349,17 +3665,17 @@
         <v>300</v>
       </c>
       <c r="H66" s="3">
+        <v>300</v>
+      </c>
+      <c r="I66" s="3">
+        <v>300</v>
+      </c>
+      <c r="J66" s="3">
         <v>100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>100</v>
       </c>
-      <c r="J66" s="3">
-        <v>0</v>
-      </c>
-      <c r="K66" s="3">
-        <v>0</v>
-      </c>
       <c r="L66" s="3">
         <v>0</v>
       </c>
@@ -3370,19 +3686,25 @@
         <v>0</v>
       </c>
       <c r="O66" s="3">
+        <v>0</v>
+      </c>
+      <c r="P66" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="3">
         <v>400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>400</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R66" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3723,10 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3775,14 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3831,14 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3887,14 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,58 +3943,70 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="F72" s="3">
         <v>-4500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-4400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-4000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-4000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-3500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-3500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-3300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-3200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-3200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-3100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-3100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-3000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R72" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +4055,14 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +4111,14 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,8 +4167,14 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3810,7 +4182,7 @@
         <v>-300</v>
       </c>
       <c r="E76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="F76" s="3">
         <v>-300</v>
@@ -3819,40 +4191,46 @@
         <v>-200</v>
       </c>
       <c r="H76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J76" s="3">
         <v>-100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>200</v>
-      </c>
-      <c r="N76" s="3">
-        <v>100</v>
-      </c>
-      <c r="O76" s="3">
-        <v>100</v>
       </c>
       <c r="P76" s="3">
         <v>100</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R76" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3">
+        <v>100</v>
+      </c>
+      <c r="R76" s="3">
+        <v>100</v>
+      </c>
+      <c r="S76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,74 +4279,86 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42551</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="E81" s="3">
         <v>-400</v>
       </c>
       <c r="F81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G81" s="3">
         <v>-400</v>
@@ -3977,19 +4367,19 @@
         <v>0</v>
       </c>
       <c r="I81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>-300</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>-100</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M81" s="3">
-        <v>0</v>
       </c>
       <c r="N81" s="3">
         <v>-100</v>
@@ -3998,7 +4388,7 @@
         <v>0</v>
       </c>
       <c r="P81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q81" s="3">
         <v>0</v>
@@ -4006,8 +4396,14 @@
       <c r="R81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,13 +4422,15 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>0</v>
+      <c r="D83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
@@ -4076,8 +4474,14 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4530,14 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4586,14 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4642,14 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4698,14 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,44 +4754,50 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
         <v>0</v>
       </c>
@@ -4376,8 +4810,14 @@
       <c r="R89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,8 +4836,10 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4446,8 +4888,14 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4944,14 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,19 +5000,25 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
         <v>0</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>4</v>
@@ -4566,38 +5026,44 @@
       <c r="H94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I94" s="3">
+      <c r="I94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K94" s="3">
         <v>100</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>300</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-300</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +5082,10 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +5134,14 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +5190,14 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5246,14 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,8 +5302,14 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4825,19 +5317,19 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>200</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>100</v>
       </c>
       <c r="J100" s="3">
         <v>0</v>
@@ -4846,28 +5338,34 @@
         <v>100</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>100</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>-200</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>300</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4916,8 +5414,14 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4964,6 +5468,12 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BEGI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BEGI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="92">
   <si>
     <t>BEGI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,90 +665,93 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42551</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -803,8 +806,11 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -817,17 +823,17 @@
       <c r="F9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>4</v>
+      <c r="G9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>4</v>
@@ -835,11 +841,11 @@
       <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>4</v>
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>4</v>
@@ -859,8 +865,11 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -873,17 +882,17 @@
       <c r="F10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>4</v>
+      <c r="G10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>4</v>
@@ -891,11 +900,11 @@
       <c r="L10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>4</v>
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>4</v>
@@ -915,8 +924,11 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -937,8 +949,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -993,8 +1006,11 @@
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1049,26 +1065,29 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E14" s="3">
         <v>300</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>300</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1084,8 +1103,8 @@
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1105,8 +1124,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1158,11 +1180,14 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-      <c r="T15" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1180,46 +1205,47 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>500</v>
+      </c>
+      <c r="E17" s="3">
         <v>300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>500</v>
       </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
       <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
         <v>100</v>
       </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
       <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
         <v>200</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
       <c r="M17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N17" s="3">
         <v>100</v>
       </c>
       <c r="O17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P17" s="3">
         <v>0</v>
@@ -1236,8 +1262,11 @@
       <c r="T17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1245,37 +1274,37 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-500</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
       <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
       <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
       <c r="M18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N18" s="3">
         <v>-100</v>
       </c>
       <c r="O18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P18" s="3">
         <v>0</v>
@@ -1292,8 +1321,11 @@
       <c r="T18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1314,8 +1346,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1329,23 +1362,23 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-300</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1356,11 +1389,11 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
@@ -1370,8 +1403,11 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1379,44 +1415,44 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-400</v>
       </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
       <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
         <v>-400</v>
       </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
       <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
         <v>-300</v>
       </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
       <c r="M21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N21" s="3">
         <v>-100</v>
       </c>
       <c r="O21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-100</v>
       </c>
-      <c r="Q21" s="3">
-        <v>0</v>
-      </c>
       <c r="R21" s="3">
         <v>0</v>
       </c>
@@ -1426,8 +1462,11 @@
       <c r="T21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1435,7 +1474,7 @@
         <v>100</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1443,8 +1482,8 @@
       <c r="G22" s="3">
         <v>0</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>4</v>
+      <c r="H22" s="3">
+        <v>0</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>4</v>
@@ -1464,8 +1503,8 @@
       <c r="N22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="O22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1482,53 +1521,56 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-400</v>
+        <v>-600</v>
       </c>
       <c r="E23" s="3">
         <v>-400</v>
       </c>
       <c r="F23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-400</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
         <v>-400</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
         <v>-300</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N23" s="3">
         <v>-100</v>
       </c>
       <c r="O23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-100</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
       <c r="R23" s="3">
         <v>0</v>
       </c>
@@ -1538,8 +1580,11 @@
       <c r="T23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1594,8 +1639,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1650,53 +1698,56 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-400</v>
+        <v>-600</v>
       </c>
       <c r="E26" s="3">
         <v>-400</v>
       </c>
       <c r="F26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-400</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>-400</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>-300</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N26" s="3">
         <v>-100</v>
       </c>
       <c r="O26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
       <c r="R26" s="3">
         <v>0</v>
       </c>
@@ -1706,53 +1757,56 @@
       <c r="T26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-400</v>
+        <v>-600</v>
       </c>
       <c r="E27" s="3">
         <v>-400</v>
       </c>
       <c r="F27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-400</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>-400</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>-300</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N27" s="3">
         <v>-100</v>
       </c>
       <c r="O27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
       <c r="R27" s="3">
         <v>0</v>
       </c>
@@ -1762,8 +1816,11 @@
       <c r="T27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1818,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1874,8 +1934,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1930,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1986,8 +2052,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2001,23 +2070,23 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>300</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -2028,11 +2097,11 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
@@ -2042,53 +2111,56 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-400</v>
+        <v>-600</v>
       </c>
       <c r="E33" s="3">
         <v>-400</v>
       </c>
       <c r="F33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-400</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>-400</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>-300</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N33" s="3">
         <v>-100</v>
       </c>
       <c r="O33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
       <c r="R33" s="3">
         <v>0</v>
       </c>
@@ -2098,8 +2170,11 @@
       <c r="T33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2154,53 +2229,56 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-400</v>
+        <v>-600</v>
       </c>
       <c r="E35" s="3">
         <v>-400</v>
       </c>
       <c r="F35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-400</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>-400</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>-300</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N35" s="3">
         <v>-100</v>
       </c>
       <c r="O35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
       <c r="R35" s="3">
         <v>0</v>
       </c>
@@ -2210,69 +2288,75 @@
       <c r="T35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42551</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2293,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2315,8 +2400,9 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2365,14 +2451,17 @@
       <c r="R41" s="3">
         <v>0</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>4</v>
+      <c r="S41" s="3">
+        <v>0</v>
       </c>
       <c r="T41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2427,8 +2516,11 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2465,26 +2557,29 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>4</v>
+      <c r="O43" s="3">
+        <v>0</v>
       </c>
       <c r="P43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
+      <c r="Q43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R43" s="3">
         <v>0</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>4</v>
+      <c r="S43" s="3">
+        <v>0</v>
       </c>
       <c r="T43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2539,13 +2634,16 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
@@ -2562,8 +2660,8 @@
       <c r="I45" s="3">
         <v>0</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>4</v>
+      <c r="J45" s="3">
+        <v>0</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>4</v>
@@ -2577,8 +2675,8 @@
       <c r="N45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
+      <c r="O45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
@@ -2595,13 +2693,16 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E46" s="3">
         <v>0</v>
@@ -2645,14 +2746,17 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>4</v>
+      <c r="S46" s="3">
+        <v>0</v>
       </c>
       <c r="T46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2681,7 +2785,7 @@
         <v>0</v>
       </c>
       <c r="L47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M47" s="3">
         <v>100</v>
@@ -2696,19 +2800,22 @@
         <v>100</v>
       </c>
       <c r="Q47" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="R47" s="3">
         <v>500</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>4</v>
+      <c r="S47" s="3">
+        <v>500</v>
       </c>
       <c r="T47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2757,14 +2864,17 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>4</v>
+      <c r="S48" s="3">
+        <v>0</v>
       </c>
       <c r="T48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2819,8 +2929,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2875,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2931,8 +3047,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2987,8 +3106,11 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3043,13 +3165,16 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E54" s="3">
         <v>0</v>
@@ -3073,34 +3198,37 @@
         <v>0</v>
       </c>
       <c r="L54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M54" s="3">
         <v>100</v>
       </c>
       <c r="N54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O54" s="3">
         <v>200</v>
       </c>
       <c r="P54" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q54" s="3">
         <v>100</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>500</v>
       </c>
       <c r="R54" s="3">
         <v>500</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>4</v>
+      <c r="S54" s="3">
+        <v>500</v>
       </c>
       <c r="T54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3121,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3143,13 +3272,14 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E57" s="3">
         <v>100</v>
@@ -3167,7 +3297,7 @@
         <v>100</v>
       </c>
       <c r="J57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
@@ -3193,19 +3323,22 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>4</v>
+      <c r="S57" s="3">
+        <v>0</v>
       </c>
       <c r="T57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E58" s="3">
         <v>200</v>
@@ -3223,13 +3356,13 @@
         <v>200</v>
       </c>
       <c r="J58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K58" s="3">
         <v>100</v>
       </c>
       <c r="L58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -3244,19 +3377,22 @@
         <v>0</v>
       </c>
       <c r="Q58" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="R58" s="3">
         <v>400</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>4</v>
+      <c r="S58" s="3">
+        <v>400</v>
       </c>
       <c r="T58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3267,11 +3403,11 @@
         <v>0</v>
       </c>
       <c r="F59" s="3">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3">
         <v>100</v>
       </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
       <c r="H59" s="3">
         <v>0</v>
       </c>
@@ -3284,8 +3420,8 @@
       <c r="K59" s="3">
         <v>0</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>4</v>
+      <c r="L59" s="3">
+        <v>0</v>
       </c>
       <c r="M59" s="3" t="s">
         <v>4</v>
@@ -3293,8 +3429,8 @@
       <c r="N59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O59" s="3">
-        <v>0</v>
+      <c r="O59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P59" s="3">
         <v>0</v>
@@ -3311,13 +3447,16 @@
       <c r="T59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E60" s="3">
         <v>300</v>
@@ -3335,13 +3474,13 @@
         <v>300</v>
       </c>
       <c r="J60" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K60" s="3">
         <v>100</v>
       </c>
       <c r="L60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M60" s="3">
         <v>0</v>
@@ -3356,19 +3495,22 @@
         <v>0</v>
       </c>
       <c r="Q60" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="R60" s="3">
         <v>400</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>4</v>
+      <c r="S60" s="3">
+        <v>400</v>
       </c>
       <c r="T60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3423,8 +3565,11 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3479,8 +3624,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3535,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3591,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3647,13 +3801,16 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E66" s="3">
         <v>300</v>
@@ -3671,13 +3828,13 @@
         <v>300</v>
       </c>
       <c r="J66" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K66" s="3">
         <v>100</v>
       </c>
       <c r="L66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M66" s="3">
         <v>0</v>
@@ -3692,19 +3849,22 @@
         <v>0</v>
       </c>
       <c r="Q66" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="R66" s="3">
         <v>400</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>4</v>
+      <c r="S66" s="3">
+        <v>400</v>
       </c>
       <c r="T66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3725,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3781,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3837,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3893,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3949,64 +4119,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-5300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-4900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-4500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-4400</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-4000</v>
       </c>
       <c r="I72" s="3">
         <v>-4000</v>
       </c>
       <c r="J72" s="3">
-        <v>-3500</v>
+        <v>-4000</v>
       </c>
       <c r="K72" s="3">
         <v>-3500</v>
       </c>
       <c r="L72" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="M72" s="3">
         <v>-3300</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-3200</v>
       </c>
       <c r="N72" s="3">
         <v>-3200</v>
       </c>
       <c r="O72" s="3">
-        <v>-3100</v>
+        <v>-3200</v>
       </c>
       <c r="P72" s="3">
         <v>-3100</v>
       </c>
       <c r="Q72" s="3">
-        <v>-3000</v>
+        <v>-3100</v>
       </c>
       <c r="R72" s="3">
         <v>-3000</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>4</v>
+      <c r="S72" s="3">
+        <v>-3000</v>
       </c>
       <c r="T72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4061,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4117,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4173,13 +4355,16 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="E76" s="3">
         <v>-300</v>
@@ -4188,34 +4373,34 @@
         <v>-300</v>
       </c>
       <c r="G76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H76" s="3">
         <v>-200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-200</v>
-      </c>
-      <c r="J76" s="3">
-        <v>-100</v>
       </c>
       <c r="K76" s="3">
         <v>-100</v>
       </c>
       <c r="L76" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="M76" s="3">
         <v>100</v>
       </c>
       <c r="N76" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O76" s="3">
         <v>200</v>
       </c>
       <c r="P76" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q76" s="3">
         <v>100</v>
@@ -4223,14 +4408,17 @@
       <c r="R76" s="3">
         <v>100</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>4</v>
+      <c r="S76" s="3">
+        <v>100</v>
       </c>
       <c r="T76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4285,114 +4473,120 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42551</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-400</v>
+        <v>-600</v>
       </c>
       <c r="E81" s="3">
         <v>-400</v>
       </c>
       <c r="F81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-400</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>-400</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>-300</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N81" s="3">
         <v>-100</v>
       </c>
       <c r="O81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
       <c r="R81" s="3">
         <v>0</v>
       </c>
@@ -4402,8 +4596,11 @@
       <c r="T81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4424,16 +4621,17 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E83" s="3">
-        <v>0</v>
+      <c r="E83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
@@ -4480,8 +4678,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4536,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4592,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4648,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4704,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4760,8 +4973,11 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4772,34 +4988,34 @@
         <v>-100</v>
       </c>
       <c r="F89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G89" s="3">
         <v>0</v>
       </c>
       <c r="H89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I89" s="3">
         <v>-100</v>
       </c>
       <c r="J89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N89" s="3">
         <v>-100</v>
       </c>
       <c r="O89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P89" s="3">
         <v>0</v>
@@ -4816,8 +5032,11 @@
       <c r="T89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4838,8 +5057,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4894,8 +5114,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4950,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5006,8 +5232,11 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5020,8 +5249,8 @@
       <c r="F94" s="3">
         <v>0</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
+      <c r="G94" s="3">
+        <v>0</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>4</v>
@@ -5032,12 +5261,12 @@
       <c r="J94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K94" s="3">
+      <c r="K94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L94" s="3">
         <v>100</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
@@ -5045,25 +5274,28 @@
         <v>0</v>
       </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>300</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-300</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5084,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5140,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5196,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5252,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5308,20 +5550,23 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
@@ -5329,43 +5574,46 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N100" s="3">
         <v>100</v>
       </c>
       <c r="O100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-200</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>300</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5420,8 +5668,11 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5474,6 +5725,9 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BEGI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BEGI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="92">
   <si>
     <t>BEGI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,93 +665,97 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42551</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -809,8 +813,11 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -826,17 +833,17 @@
       <c r="G9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>4</v>
+      <c r="H9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>4</v>
@@ -844,11 +851,11 @@
       <c r="M9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>4</v>
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>4</v>
@@ -868,8 +875,11 @@
       <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -885,17 +895,17 @@
       <c r="G10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>4</v>
+      <c r="H10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>4</v>
@@ -903,11 +913,11 @@
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>4</v>
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>4</v>
@@ -927,8 +937,11 @@
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,8 +963,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1009,8 +1023,11 @@
       <c r="U12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,29 +1085,32 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>400</v>
-      </c>
-      <c r="E14" s="3">
-        <v>300</v>
       </c>
       <c r="F14" s="3">
         <v>300</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>300</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1106,8 +1126,8 @@
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1127,13 +1147,16 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>0</v>
+      <c r="D15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
@@ -1183,11 +1206,14 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-      <c r="U15" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,49 +1232,50 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>200</v>
+      </c>
+      <c r="E17" s="3">
         <v>500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>500</v>
       </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
       <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
         <v>100</v>
       </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
       <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
         <v>200</v>
       </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
       <c r="N17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O17" s="3">
         <v>100</v>
       </c>
       <c r="P17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q17" s="3">
         <v>0</v>
@@ -1265,8 +1292,11 @@
       <c r="U17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1274,40 +1304,40 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F18" s="3">
         <v>-300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-500</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
       <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
       <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
       <c r="N18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O18" s="3">
         <v>-100</v>
       </c>
       <c r="P18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q18" s="3">
         <v>0</v>
@@ -1324,8 +1354,11 @@
       <c r="U18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,8 +1380,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1365,23 +1399,23 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-300</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1392,11 +1426,11 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
@@ -1406,8 +1440,11 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1415,47 +1452,47 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F21" s="3">
         <v>-300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-400</v>
       </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
       <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
         <v>-400</v>
       </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
       <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
         <v>-300</v>
       </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
       <c r="N21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O21" s="3">
         <v>-100</v>
       </c>
       <c r="P21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+      <c r="R21" s="3">
         <v>-100</v>
       </c>
-      <c r="R21" s="3">
-        <v>0</v>
-      </c>
       <c r="S21" s="3">
         <v>0</v>
       </c>
@@ -1465,19 +1502,22 @@
       <c r="U21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E22" s="3">
         <v>100</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1485,8 +1525,8 @@
       <c r="H22" s="3">
         <v>0</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>4</v>
+      <c r="I22" s="3">
+        <v>0</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>4</v>
@@ -1506,8 +1546,8 @@
       <c r="O22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
+      <c r="P22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
@@ -1524,56 +1564,59 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-600</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-400</v>
       </c>
       <c r="F23" s="3">
         <v>-400</v>
       </c>
       <c r="G23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H23" s="3">
         <v>-100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-400</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
       <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>-400</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>-300</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O23" s="3">
         <v>-100</v>
       </c>
       <c r="P23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
         <v>-100</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
       <c r="S23" s="3">
         <v>0</v>
       </c>
@@ -1583,8 +1626,11 @@
       <c r="U23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1642,8 +1688,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,56 +1750,59 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-600</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-400</v>
       </c>
       <c r="F26" s="3">
         <v>-400</v>
       </c>
       <c r="G26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H26" s="3">
         <v>-100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-400</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
       <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>-400</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>-300</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O26" s="3">
         <v>-100</v>
       </c>
       <c r="P26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
       <c r="S26" s="3">
         <v>0</v>
       </c>
@@ -1760,56 +1812,59 @@
       <c r="U26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-600</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-400</v>
       </c>
       <c r="F27" s="3">
         <v>-400</v>
       </c>
       <c r="G27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-400</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>-400</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>-300</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O27" s="3">
         <v>-100</v>
       </c>
       <c r="P27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
       <c r="S27" s="3">
         <v>0</v>
       </c>
@@ -1819,8 +1874,11 @@
       <c r="U27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1936,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1937,8 +1998,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,8 +2122,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2073,23 +2143,23 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>300</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -2100,11 +2170,11 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>100</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
@@ -2114,56 +2184,59 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-600</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-400</v>
       </c>
       <c r="F33" s="3">
         <v>-400</v>
       </c>
       <c r="G33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-400</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>-400</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>-300</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O33" s="3">
         <v>-100</v>
       </c>
       <c r="P33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
       <c r="S33" s="3">
         <v>0</v>
       </c>
@@ -2173,8 +2246,11 @@
       <c r="U33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,56 +2308,59 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-600</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-400</v>
       </c>
       <c r="F35" s="3">
         <v>-400</v>
       </c>
       <c r="G35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-400</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>-400</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>-300</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O35" s="3">
         <v>-100</v>
       </c>
       <c r="P35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
       <c r="S35" s="3">
         <v>0</v>
       </c>
@@ -2291,72 +2370,78 @@
       <c r="U35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42551</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,13 +2487,14 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
@@ -2454,14 +2541,17 @@
       <c r="S41" s="3">
         <v>0</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>4</v>
+      <c r="T41" s="3">
+        <v>0</v>
       </c>
       <c r="U41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2519,8 +2609,11 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2560,26 +2653,29 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>4</v>
+      <c r="P43" s="3">
+        <v>0</v>
       </c>
       <c r="Q43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R43" s="3">
-        <v>0</v>
+      <c r="R43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>4</v>
+      <c r="T43" s="3">
+        <v>0</v>
       </c>
       <c r="U43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2637,17 +2733,20 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
         <v>100</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
       <c r="F45" s="3">
         <v>0</v>
       </c>
@@ -2663,8 +2762,8 @@
       <c r="J45" s="3">
         <v>0</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>4</v>
+      <c r="K45" s="3">
+        <v>0</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>4</v>
@@ -2678,8 +2777,8 @@
       <c r="O45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
+      <c r="P45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
@@ -2696,17 +2795,20 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>200</v>
+      </c>
+      <c r="E46" s="3">
         <v>100</v>
       </c>
-      <c r="E46" s="3">
-        <v>0</v>
-      </c>
       <c r="F46" s="3">
         <v>0</v>
       </c>
@@ -2749,14 +2851,17 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>4</v>
+      <c r="T46" s="3">
+        <v>0</v>
       </c>
       <c r="U46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2788,7 +2893,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N47" s="3">
         <v>100</v>
@@ -2803,19 +2908,22 @@
         <v>100</v>
       </c>
       <c r="R47" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="S47" s="3">
         <v>500</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>4</v>
+      <c r="T47" s="3">
+        <v>500</v>
       </c>
       <c r="U47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2867,14 +2975,17 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>4</v>
+      <c r="T48" s="3">
+        <v>0</v>
       </c>
       <c r="U48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2932,8 +3043,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,8 +3167,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3109,8 +3229,11 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,17 +3291,20 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>200</v>
+      </c>
+      <c r="E54" s="3">
         <v>100</v>
       </c>
-      <c r="E54" s="3">
-        <v>0</v>
-      </c>
       <c r="F54" s="3">
         <v>0</v>
       </c>
@@ -3201,34 +3327,37 @@
         <v>0</v>
       </c>
       <c r="M54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N54" s="3">
         <v>100</v>
       </c>
       <c r="O54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P54" s="3">
         <v>200</v>
       </c>
       <c r="Q54" s="3">
+        <v>200</v>
+      </c>
+      <c r="R54" s="3">
         <v>100</v>
-      </c>
-      <c r="R54" s="3">
-        <v>500</v>
       </c>
       <c r="S54" s="3">
         <v>500</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>4</v>
+      <c r="T54" s="3">
+        <v>500</v>
       </c>
       <c r="U54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,8 +3403,9 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3282,7 +3413,7 @@
         <v>0</v>
       </c>
       <c r="E57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F57" s="3">
         <v>100</v>
@@ -3300,7 +3431,7 @@
         <v>100</v>
       </c>
       <c r="K57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L57" s="3">
         <v>0</v>
@@ -3326,14 +3457,17 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>4</v>
+      <c r="T57" s="3">
+        <v>0</v>
       </c>
       <c r="U57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3341,7 +3475,7 @@
         <v>100</v>
       </c>
       <c r="E58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F58" s="3">
         <v>200</v>
@@ -3359,13 +3493,13 @@
         <v>200</v>
       </c>
       <c r="K58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L58" s="3">
         <v>100</v>
       </c>
       <c r="M58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
@@ -3380,19 +3514,22 @@
         <v>0</v>
       </c>
       <c r="R58" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="S58" s="3">
         <v>400</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>4</v>
+      <c r="T58" s="3">
+        <v>400</v>
       </c>
       <c r="U58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3406,11 +3543,11 @@
         <v>0</v>
       </c>
       <c r="G59" s="3">
+        <v>0</v>
+      </c>
+      <c r="H59" s="3">
         <v>100</v>
       </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
       <c r="I59" s="3">
         <v>0</v>
       </c>
@@ -3423,8 +3560,8 @@
       <c r="L59" s="3">
         <v>0</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>4</v>
+      <c r="M59" s="3">
+        <v>0</v>
       </c>
       <c r="N59" s="3" t="s">
         <v>4</v>
@@ -3432,8 +3569,8 @@
       <c r="O59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P59" s="3">
-        <v>0</v>
+      <c r="P59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q59" s="3">
         <v>0</v>
@@ -3450,8 +3587,11 @@
       <c r="U59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3459,7 +3599,7 @@
         <v>100</v>
       </c>
       <c r="E60" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F60" s="3">
         <v>300</v>
@@ -3477,13 +3617,13 @@
         <v>300</v>
       </c>
       <c r="K60" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="L60" s="3">
         <v>100</v>
       </c>
       <c r="M60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N60" s="3">
         <v>0</v>
@@ -3498,19 +3638,22 @@
         <v>0</v>
       </c>
       <c r="R60" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="S60" s="3">
         <v>400</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>4</v>
+      <c r="T60" s="3">
+        <v>400</v>
       </c>
       <c r="U60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3568,8 +3711,11 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3627,8 +3773,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,8 +3959,11 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3813,7 +3971,7 @@
         <v>100</v>
       </c>
       <c r="E66" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F66" s="3">
         <v>300</v>
@@ -3831,13 +3989,13 @@
         <v>300</v>
       </c>
       <c r="K66" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="L66" s="3">
         <v>100</v>
       </c>
       <c r="M66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N66" s="3">
         <v>0</v>
@@ -3852,19 +4010,22 @@
         <v>0</v>
       </c>
       <c r="R66" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="S66" s="3">
         <v>400</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>4</v>
+      <c r="T66" s="3">
+        <v>400</v>
       </c>
       <c r="U66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4231,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4293,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-6000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-5300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-4900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-4500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-4400</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-4000</v>
       </c>
       <c r="J72" s="3">
         <v>-4000</v>
       </c>
       <c r="K72" s="3">
-        <v>-3500</v>
+        <v>-4000</v>
       </c>
       <c r="L72" s="3">
         <v>-3500</v>
       </c>
       <c r="M72" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="N72" s="3">
         <v>-3300</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-3200</v>
       </c>
       <c r="O72" s="3">
         <v>-3200</v>
       </c>
       <c r="P72" s="3">
-        <v>-3100</v>
+        <v>-3200</v>
       </c>
       <c r="Q72" s="3">
         <v>-3100</v>
       </c>
       <c r="R72" s="3">
-        <v>-3000</v>
+        <v>-3100</v>
       </c>
       <c r="S72" s="3">
         <v>-3000</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>4</v>
+      <c r="T72" s="3">
+        <v>-3000</v>
       </c>
       <c r="U72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,8 +4541,11 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4367,7 +4553,7 @@
         <v>0</v>
       </c>
       <c r="E76" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="F76" s="3">
         <v>-300</v>
@@ -4376,34 +4562,34 @@
         <v>-300</v>
       </c>
       <c r="H76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I76" s="3">
         <v>-200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-200</v>
-      </c>
-      <c r="K76" s="3">
-        <v>-100</v>
       </c>
       <c r="L76" s="3">
         <v>-100</v>
       </c>
       <c r="M76" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="N76" s="3">
         <v>100</v>
       </c>
       <c r="O76" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P76" s="3">
         <v>200</v>
       </c>
       <c r="Q76" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R76" s="3">
         <v>100</v>
@@ -4411,14 +4597,17 @@
       <c r="S76" s="3">
         <v>100</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>4</v>
+      <c r="T76" s="3">
+        <v>100</v>
       </c>
       <c r="U76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,120 +4665,126 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42551</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-600</v>
-      </c>
-      <c r="E81" s="3">
-        <v>-400</v>
       </c>
       <c r="F81" s="3">
         <v>-400</v>
       </c>
       <c r="G81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-400</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>-400</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>-300</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O81" s="3">
         <v>-100</v>
       </c>
       <c r="P81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
       <c r="S81" s="3">
         <v>0</v>
       </c>
@@ -4599,8 +4794,11 @@
       <c r="U81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,8 +4820,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4633,8 +4832,8 @@
       <c r="E83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F83" s="3">
-        <v>0</v>
+      <c r="F83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G83" s="3">
         <v>0</v>
@@ -4681,8 +4880,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,8 +5190,11 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4991,34 +5208,34 @@
         <v>-100</v>
       </c>
       <c r="G89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H89" s="3">
         <v>0</v>
       </c>
       <c r="I89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J89" s="3">
         <v>-100</v>
       </c>
       <c r="K89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O89" s="3">
         <v>-100</v>
       </c>
       <c r="P89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q89" s="3">
         <v>0</v>
@@ -5035,8 +5252,11 @@
       <c r="U89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,8 +5278,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5117,8 +5338,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,8 +5462,11 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5252,8 +5482,8 @@
       <c r="G94" s="3">
         <v>0</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
+      <c r="H94" s="3">
+        <v>0</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>4</v>
@@ -5264,12 +5494,12 @@
       <c r="K94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M94" s="3">
         <v>100</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
@@ -5277,25 +5507,28 @@
         <v>0</v>
       </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>300</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>-300</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5550,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5610,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,23 +5796,26 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
@@ -5577,43 +5823,46 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O100" s="3">
         <v>100</v>
       </c>
       <c r="P100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>-200</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>300</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,13 +5920,16 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
@@ -5728,6 +5980,9 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BEGI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BEGI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="92">
   <si>
     <t>BEGI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,97 +665,105 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42551</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -816,8 +824,14 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -836,8 +850,8 @@
       <c r="H9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="3">
-        <v>0</v>
+      <c r="I9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>4</v>
@@ -848,20 +862,20 @@
       <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>4</v>
+      <c r="M9" s="3">
+        <v>0</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O9" s="3">
-        <v>0</v>
+      <c r="O9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>4</v>
+      <c r="Q9" s="3">
+        <v>0</v>
       </c>
       <c r="R9" s="3" t="s">
         <v>4</v>
@@ -878,8 +892,14 @@
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -898,8 +918,8 @@
       <c r="H10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="3">
-        <v>0</v>
+      <c r="I10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>4</v>
@@ -910,20 +930,20 @@
       <c r="L10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>4</v>
+      <c r="M10" s="3">
+        <v>0</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O10" s="3">
-        <v>0</v>
+      <c r="O10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>4</v>
+      <c r="Q10" s="3">
+        <v>0</v>
       </c>
       <c r="R10" s="3" t="s">
         <v>4</v>
@@ -940,8 +960,14 @@
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -964,8 +990,10 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1026,8 +1054,14 @@
       <c r="V12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,8 +1122,14 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1097,25 +1137,25 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>100</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>300</v>
-      </c>
-      <c r="G14" s="3">
-        <v>300</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
       </c>
       <c r="I14" s="3">
         <v>300</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>300</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
@@ -1129,11 +1169,11 @@
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1150,19 +1190,25 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
+      <c r="E15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G15" s="3">
         <v>0</v>
@@ -1209,11 +1255,17 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-      <c r="V15" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,56 +1285,58 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>400</v>
+      </c>
+      <c r="F17" s="3">
         <v>200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>500</v>
       </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
         <v>100</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
         <v>200</v>
       </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3">
         <v>100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>100</v>
       </c>
-      <c r="Q17" s="3">
-        <v>0</v>
-      </c>
-      <c r="R17" s="3">
-        <v>0</v>
-      </c>
       <c r="S17" s="3">
         <v>0</v>
       </c>
@@ -1295,8 +1349,14 @@
       <c r="V17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3">
+        <v>0</v>
+      </c>
+      <c r="X17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1304,47 +1364,47 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G18" s="3">
         <v>-500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-500</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
         <v>-200</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
       <c r="S18" s="3">
         <v>0</v>
       </c>
@@ -1357,8 +1417,14 @@
       <c r="V18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3">
+        <v>0</v>
+      </c>
+      <c r="X18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,8 +1447,10 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1402,26 +1470,26 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-300</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
@@ -1429,45 +1497,51 @@
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>-100</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="3">
         <v>-500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-300</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-400</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-100</v>
       </c>
       <c r="I21" s="3">
         <v>-400</v>
       </c>
       <c r="J21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K21" s="3">
         <v>-400</v>
@@ -1476,19 +1550,19 @@
         <v>0</v>
       </c>
       <c r="M21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
         <v>-300</v>
       </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-100</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>0</v>
       </c>
       <c r="R21" s="3">
         <v>-100</v>
@@ -1497,7 +1571,7 @@
         <v>0</v>
       </c>
       <c r="T21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U21" s="3">
         <v>0</v>
@@ -1505,34 +1579,40 @@
       <c r="V21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3">
+        <v>0</v>
+      </c>
+      <c r="X21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>400</v>
+      </c>
+      <c r="E22" s="3">
+        <v>300</v>
+      </c>
+      <c r="F22" s="3">
         <v>200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>100</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
       <c r="I22" s="3">
         <v>0</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>4</v>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>4</v>
@@ -1549,11 +1629,11 @@
       <c r="P22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
-      <c r="R22" s="3">
-        <v>0</v>
+      <c r="Q22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
@@ -1567,31 +1647,37 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F23" s="3">
         <v>-300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-400</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-400</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-100</v>
       </c>
       <c r="I23" s="3">
         <v>-400</v>
       </c>
       <c r="J23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K23" s="3">
         <v>-400</v>
@@ -1600,19 +1686,19 @@
         <v>0</v>
       </c>
       <c r="M23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>-300</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-100</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>0</v>
       </c>
       <c r="R23" s="3">
         <v>-100</v>
@@ -1621,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="T23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U23" s="3">
         <v>0</v>
@@ -1629,8 +1715,14 @@
       <c r="V23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3">
+        <v>0</v>
+      </c>
+      <c r="X23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1691,8 +1783,14 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,31 +1851,37 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F26" s="3">
         <v>-300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-400</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-400</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-100</v>
       </c>
       <c r="I26" s="3">
         <v>-400</v>
       </c>
       <c r="J26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K26" s="3">
         <v>-400</v>
@@ -1786,19 +1890,19 @@
         <v>0</v>
       </c>
       <c r="M26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>-300</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-100</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>0</v>
       </c>
       <c r="R26" s="3">
         <v>-100</v>
@@ -1807,7 +1911,7 @@
         <v>0</v>
       </c>
       <c r="T26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U26" s="3">
         <v>0</v>
@@ -1815,31 +1919,37 @@
       <c r="V26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3">
+        <v>0</v>
+      </c>
+      <c r="X26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F27" s="3">
         <v>-300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-400</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-400</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-100</v>
       </c>
       <c r="I27" s="3">
         <v>-400</v>
       </c>
       <c r="J27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K27" s="3">
         <v>-400</v>
@@ -1848,19 +1958,19 @@
         <v>0</v>
       </c>
       <c r="M27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>-300</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-100</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>0</v>
       </c>
       <c r="R27" s="3">
         <v>-100</v>
@@ -1869,7 +1979,7 @@
         <v>0</v>
       </c>
       <c r="T27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U27" s="3">
         <v>0</v>
@@ -1877,8 +1987,14 @@
       <c r="V27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3">
+        <v>0</v>
+      </c>
+      <c r="X27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +2055,14 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2001,8 +2123,14 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2191,14 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,8 +2259,14 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2146,26 +2286,26 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>300</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
@@ -2173,45 +2313,51 @@
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>100</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F33" s="3">
         <v>-300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-400</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-400</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-100</v>
       </c>
       <c r="I33" s="3">
         <v>-400</v>
       </c>
       <c r="J33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K33" s="3">
         <v>-400</v>
@@ -2220,19 +2366,19 @@
         <v>0</v>
       </c>
       <c r="M33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>-300</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-100</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>0</v>
       </c>
       <c r="R33" s="3">
         <v>-100</v>
@@ -2241,7 +2387,7 @@
         <v>0</v>
       </c>
       <c r="T33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U33" s="3">
         <v>0</v>
@@ -2249,8 +2395,14 @@
       <c r="V33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3">
+        <v>0</v>
+      </c>
+      <c r="X33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,31 +2463,37 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F35" s="3">
         <v>-300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-400</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-400</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-100</v>
       </c>
       <c r="I35" s="3">
         <v>-400</v>
       </c>
       <c r="J35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K35" s="3">
         <v>-400</v>
@@ -2344,19 +2502,19 @@
         <v>0</v>
       </c>
       <c r="M35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>-300</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-100</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>0</v>
       </c>
       <c r="R35" s="3">
         <v>-100</v>
@@ -2365,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="T35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U35" s="3">
         <v>0</v>
@@ -2373,75 +2531,87 @@
       <c r="V35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3">
+        <v>0</v>
+      </c>
+      <c r="X35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42551</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2634,10 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,20 +2660,22 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>600</v>
+      </c>
+      <c r="E41" s="3">
+        <v>500</v>
+      </c>
+      <c r="F41" s="3">
         <v>100</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
         <v>0</v>
       </c>
@@ -2544,14 +2718,20 @@
       <c r="T41" s="3">
         <v>0</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V41" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+      <c r="W41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2612,8 +2792,14 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2656,26 +2842,32 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S43" s="3">
-        <v>0</v>
-      </c>
-      <c r="T43" s="3">
-        <v>0</v>
-      </c>
-      <c r="U43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+      <c r="W43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2736,8 +2928,14 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2745,14 +2943,14 @@
         <v>0</v>
       </c>
       <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
         <v>100</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
       <c r="H45" s="3">
         <v>0</v>
       </c>
@@ -2765,11 +2963,11 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>4</v>
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0</v>
       </c>
       <c r="N45" s="3" t="s">
         <v>4</v>
@@ -2780,11 +2978,11 @@
       <c r="P45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q45" s="3">
-        <v>0</v>
-      </c>
-      <c r="R45" s="3">
-        <v>0</v>
+      <c r="Q45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S45" s="3">
         <v>0</v>
@@ -2798,23 +2996,29 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>500</v>
+      </c>
+      <c r="F46" s="3">
         <v>200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>100</v>
       </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
-      <c r="G46" s="3">
-        <v>0</v>
-      </c>
       <c r="H46" s="3">
         <v>0</v>
       </c>
@@ -2854,14 +3058,20 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V46" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+      <c r="W46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2896,10 +3106,10 @@
         <v>0</v>
       </c>
       <c r="N47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P47" s="3">
         <v>100</v>
@@ -2911,27 +3121,33 @@
         <v>100</v>
       </c>
       <c r="S47" s="3">
+        <v>100</v>
+      </c>
+      <c r="T47" s="3">
+        <v>100</v>
+      </c>
+      <c r="U47" s="3">
         <v>500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>500</v>
       </c>
-      <c r="U47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V47" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F48" s="3">
         <v>0</v>
@@ -2978,14 +3194,20 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V48" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+      <c r="W48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3046,8 +3268,14 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3336,14 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,8 +3404,14 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3232,8 +3472,14 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,23 +3540,29 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>600</v>
+      </c>
+      <c r="F54" s="3">
         <v>200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>100</v>
       </c>
-      <c r="F54" s="3">
-        <v>0</v>
-      </c>
-      <c r="G54" s="3">
-        <v>0</v>
-      </c>
       <c r="H54" s="3">
         <v>0</v>
       </c>
@@ -3330,34 +3582,40 @@
         <v>0</v>
       </c>
       <c r="N54" s="3">
+        <v>0</v>
+      </c>
+      <c r="O54" s="3">
+        <v>0</v>
+      </c>
+      <c r="P54" s="3">
         <v>100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>500</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V54" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3638,10 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,8 +3664,10 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3416,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="F57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H57" s="3">
         <v>100</v>
@@ -3434,10 +3696,10 @@
         <v>100</v>
       </c>
       <c r="L57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N57" s="3">
         <v>0</v>
@@ -3460,28 +3722,34 @@
       <c r="T57" s="3">
         <v>0</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V57" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+      <c r="W57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>500</v>
+      </c>
+      <c r="E58" s="3">
+        <v>200</v>
+      </c>
+      <c r="F58" s="3">
         <v>100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>100</v>
-      </c>
-      <c r="F58" s="3">
-        <v>200</v>
-      </c>
-      <c r="G58" s="3">
-        <v>200</v>
       </c>
       <c r="H58" s="3">
         <v>200</v>
@@ -3496,17 +3764,17 @@
         <v>200</v>
       </c>
       <c r="L58" s="3">
+        <v>200</v>
+      </c>
+      <c r="M58" s="3">
+        <v>200</v>
+      </c>
+      <c r="N58" s="3">
         <v>100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>100</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
       <c r="P58" s="3">
         <v>0</v>
       </c>
@@ -3517,24 +3785,30 @@
         <v>0</v>
       </c>
       <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
         <v>400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>400</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V58" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E59" s="3">
         <v>0</v>
@@ -3546,14 +3820,14 @@
         <v>0</v>
       </c>
       <c r="H59" s="3">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3">
+        <v>0</v>
+      </c>
+      <c r="J59" s="3">
         <v>100</v>
       </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
-      <c r="J59" s="3">
-        <v>0</v>
-      </c>
       <c r="K59" s="3">
         <v>0</v>
       </c>
@@ -3563,20 +3837,20 @@
       <c r="M59" s="3">
         <v>0</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O59" s="3" t="s">
-        <v>4</v>
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+      <c r="O59" s="3">
+        <v>0</v>
       </c>
       <c r="P59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q59" s="3">
-        <v>0</v>
-      </c>
-      <c r="R59" s="3">
-        <v>0</v>
+      <c r="Q59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S59" s="3">
         <v>0</v>
@@ -3590,22 +3864,28 @@
       <c r="V59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+      <c r="X59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>200</v>
+      </c>
+      <c r="F60" s="3">
         <v>100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>100</v>
-      </c>
-      <c r="F60" s="3">
-        <v>300</v>
-      </c>
-      <c r="G60" s="3">
-        <v>300</v>
       </c>
       <c r="H60" s="3">
         <v>300</v>
@@ -3620,17 +3900,17 @@
         <v>300</v>
       </c>
       <c r="L60" s="3">
+        <v>300</v>
+      </c>
+      <c r="M60" s="3">
+        <v>300</v>
+      </c>
+      <c r="N60" s="3">
         <v>100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>100</v>
       </c>
-      <c r="N60" s="3">
-        <v>0</v>
-      </c>
-      <c r="O60" s="3">
-        <v>0</v>
-      </c>
       <c r="P60" s="3">
         <v>0</v>
       </c>
@@ -3641,19 +3921,25 @@
         <v>0</v>
       </c>
       <c r="S60" s="3">
+        <v>0</v>
+      </c>
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+      <c r="U60" s="3">
         <v>400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>400</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V60" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3714,8 +4000,14 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3776,8 +4068,14 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +4136,14 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4204,14 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,22 +4272,28 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>200</v>
+      </c>
+      <c r="F66" s="3">
         <v>100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>100</v>
-      </c>
-      <c r="F66" s="3">
-        <v>300</v>
-      </c>
-      <c r="G66" s="3">
-        <v>300</v>
       </c>
       <c r="H66" s="3">
         <v>300</v>
@@ -3992,17 +4308,17 @@
         <v>300</v>
       </c>
       <c r="L66" s="3">
+        <v>300</v>
+      </c>
+      <c r="M66" s="3">
+        <v>300</v>
+      </c>
+      <c r="N66" s="3">
         <v>100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>100</v>
       </c>
-      <c r="N66" s="3">
-        <v>0</v>
-      </c>
-      <c r="O66" s="3">
-        <v>0</v>
-      </c>
       <c r="P66" s="3">
         <v>0</v>
       </c>
@@ -4013,19 +4329,25 @@
         <v>0</v>
       </c>
       <c r="S66" s="3">
+        <v>0</v>
+      </c>
+      <c r="T66" s="3">
+        <v>0</v>
+      </c>
+      <c r="U66" s="3">
         <v>400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>400</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V66" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4370,10 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4434,14 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4502,14 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4570,14 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,70 +4638,82 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-6300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-6000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-5300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-4900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-4500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-4400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-4000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-4000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-3500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-3500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-3300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-3200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-3100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-3100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-3000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-3000</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V72" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4774,14 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4842,14 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,28 +4910,34 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E76" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F76" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="G76" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="H76" s="3">
         <v>-300</v>
       </c>
       <c r="I76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="J76" s="3">
         <v>-300</v>
@@ -4574,40 +4946,46 @@
         <v>-200</v>
       </c>
       <c r="L76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N76" s="3">
         <v>-100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>200</v>
-      </c>
-      <c r="R76" s="3">
-        <v>100</v>
-      </c>
-      <c r="S76" s="3">
-        <v>100</v>
       </c>
       <c r="T76" s="3">
         <v>100</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V76" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="U76" s="3">
+        <v>100</v>
+      </c>
+      <c r="V76" s="3">
+        <v>100</v>
+      </c>
+      <c r="W76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,98 +5046,110 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42551</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F81" s="3">
         <v>-300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-400</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-400</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-100</v>
       </c>
       <c r="I81" s="3">
         <v>-400</v>
       </c>
       <c r="J81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K81" s="3">
         <v>-400</v>
@@ -4768,19 +5158,19 @@
         <v>0</v>
       </c>
       <c r="M81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>-300</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-100</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>0</v>
       </c>
       <c r="R81" s="3">
         <v>-100</v>
@@ -4789,7 +5179,7 @@
         <v>0</v>
       </c>
       <c r="T81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U81" s="3">
         <v>0</v>
@@ -4797,8 +5187,14 @@
       <c r="V81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3">
+        <v>0</v>
+      </c>
+      <c r="X81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,19 +5217,21 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>4</v>
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
       </c>
       <c r="G83" s="3">
         <v>0</v>
@@ -4883,8 +5281,14 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5349,14 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5417,14 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5485,14 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5553,14 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,8 +5621,14 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5211,38 +5645,38 @@
         <v>-100</v>
       </c>
       <c r="H89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
       <c r="S89" s="3">
         <v>0</v>
       </c>
@@ -5255,8 +5689,14 @@
       <c r="V89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,8 +5719,10 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5341,8 +5783,14 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5851,14 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,8 +5919,14 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5485,11 +5945,11 @@
       <c r="H94" s="3">
         <v>0</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>4</v>
@@ -5497,38 +5957,44 @@
       <c r="L94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O94" s="3">
         <v>100</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>300</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
         <v>-300</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +6017,10 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5613,8 +6081,14 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +6149,14 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +6217,14 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,8 +6285,14 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5808,10 +6300,10 @@
         <v>200</v>
       </c>
       <c r="E100" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G100" s="3">
         <v>100</v>
@@ -5820,19 +6312,19 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>200</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3">
-        <v>100</v>
       </c>
       <c r="N100" s="3">
         <v>0</v>
@@ -5841,28 +6333,34 @@
         <v>100</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
+        <v>100</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>-200</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>300</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5923,8 +6421,14 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5932,10 +6436,10 @@
         <v>100</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G102" s="3">
         <v>0</v>
@@ -5983,6 +6487,12 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BEGI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BEGI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="92">
   <si>
     <t>BEGI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,105 +665,108 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42551</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -830,8 +833,11 @@
       <c r="X8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -856,17 +862,17 @@
       <c r="J9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>4</v>
+      <c r="K9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>4</v>
@@ -874,11 +880,11 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q9" s="3">
-        <v>0</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>4</v>
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R9" s="3">
+        <v>0</v>
       </c>
       <c r="S9" s="3" t="s">
         <v>4</v>
@@ -898,8 +904,11 @@
       <c r="X9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -924,17 +933,17 @@
       <c r="J10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>4</v>
+      <c r="K10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>4</v>
@@ -942,11 +951,11 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q10" s="3">
-        <v>0</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>4</v>
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" s="3">
+        <v>0</v>
       </c>
       <c r="S10" s="3" t="s">
         <v>4</v>
@@ -966,8 +975,11 @@
       <c r="X10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1004,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1060,8 +1073,11 @@
       <c r="X12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1128,38 +1144,41 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>100</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>400</v>
-      </c>
-      <c r="H14" s="3">
-        <v>300</v>
       </c>
       <c r="I14" s="3">
         <v>300</v>
       </c>
       <c r="J14" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>300</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1175,8 +1194,8 @@
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1196,8 +1215,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1210,8 +1232,8 @@
       <c r="F15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G15" s="3">
-        <v>0</v>
+      <c r="G15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
@@ -1261,11 +1283,14 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-      <c r="X15" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1287,58 +1312,59 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E17" s="3">
         <v>400</v>
       </c>
       <c r="F17" s="3">
+        <v>400</v>
+      </c>
+      <c r="G17" s="3">
         <v>200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>500</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
       <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
         <v>100</v>
       </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
       <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
         <v>200</v>
       </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
       <c r="Q17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R17" s="3">
         <v>100</v>
       </c>
       <c r="S17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T17" s="3">
         <v>0</v>
@@ -1355,8 +1381,11 @@
       <c r="X17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1367,46 +1396,46 @@
         <v>-400</v>
       </c>
       <c r="F18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G18" s="3">
         <v>-200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-500</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
       <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
       <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
         <v>-200</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
       <c r="Q18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R18" s="3">
         <v>-100</v>
       </c>
       <c r="S18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T18" s="3">
         <v>0</v>
@@ -1423,8 +1452,11 @@
       <c r="X18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1449,8 +1481,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1476,23 +1509,23 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-300</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
@@ -1503,11 +1536,11 @@
         <v>0</v>
       </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>-100</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
         <v>0</v>
       </c>
@@ -1517,8 +1550,11 @@
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1531,51 +1567,51 @@
       <c r="F21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="3">
         <v>-500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-400</v>
       </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
       <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
         <v>-400</v>
       </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
       <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
         <v>-300</v>
       </c>
-      <c r="P21" s="3">
-        <v>0</v>
-      </c>
       <c r="Q21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R21" s="3">
         <v>-100</v>
       </c>
       <c r="S21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T21" s="3">
+        <v>0</v>
+      </c>
+      <c r="U21" s="3">
         <v>-100</v>
       </c>
-      <c r="U21" s="3">
-        <v>0</v>
-      </c>
       <c r="V21" s="3">
         <v>0</v>
       </c>
@@ -1585,8 +1621,11 @@
       <c r="X21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1594,19 +1633,19 @@
         <v>400</v>
       </c>
       <c r="E22" s="3">
+        <v>400</v>
+      </c>
+      <c r="F22" s="3">
         <v>300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>200</v>
-      </c>
-      <c r="G22" s="3">
-        <v>100</v>
       </c>
       <c r="H22" s="3">
         <v>100</v>
       </c>
       <c r="I22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
@@ -1614,8 +1653,8 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>4</v>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>4</v>
@@ -1635,8 +1674,8 @@
       <c r="R22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
+      <c r="S22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
@@ -1653,65 +1692,68 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-600</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-400</v>
       </c>
       <c r="I23" s="3">
         <v>-400</v>
       </c>
       <c r="J23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-400</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>-400</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
         <v>-300</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
       <c r="Q23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R23" s="3">
         <v>-100</v>
       </c>
       <c r="S23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3">
         <v>-100</v>
       </c>
-      <c r="U23" s="3">
-        <v>0</v>
-      </c>
       <c r="V23" s="3">
         <v>0</v>
       </c>
@@ -1721,8 +1763,11 @@
       <c r="X23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1789,8 +1834,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1857,65 +1905,68 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-600</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-400</v>
       </c>
       <c r="I26" s="3">
         <v>-400</v>
       </c>
       <c r="J26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-400</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>-400</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
         <v>-300</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
       <c r="Q26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R26" s="3">
         <v>-100</v>
       </c>
       <c r="S26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
         <v>-100</v>
       </c>
-      <c r="U26" s="3">
-        <v>0</v>
-      </c>
       <c r="V26" s="3">
         <v>0</v>
       </c>
@@ -1925,65 +1976,68 @@
       <c r="X26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-600</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-400</v>
       </c>
       <c r="I27" s="3">
         <v>-400</v>
       </c>
       <c r="J27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-400</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>-400</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>-300</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
       <c r="Q27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R27" s="3">
         <v>-100</v>
       </c>
       <c r="S27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
         <v>-100</v>
       </c>
-      <c r="U27" s="3">
-        <v>0</v>
-      </c>
       <c r="V27" s="3">
         <v>0</v>
       </c>
@@ -1993,8 +2047,11 @@
       <c r="X27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2061,8 +2118,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2129,8 +2189,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2197,8 +2260,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2265,8 +2331,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2292,23 +2361,23 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>300</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
@@ -2319,11 +2388,11 @@
         <v>0</v>
       </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>100</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
         <v>0</v>
       </c>
@@ -2333,65 +2402,68 @@
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-600</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-400</v>
       </c>
       <c r="I33" s="3">
         <v>-400</v>
       </c>
       <c r="J33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-400</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>-400</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>-300</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
       <c r="Q33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R33" s="3">
         <v>-100</v>
       </c>
       <c r="S33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
         <v>-100</v>
       </c>
-      <c r="U33" s="3">
-        <v>0</v>
-      </c>
       <c r="V33" s="3">
         <v>0</v>
       </c>
@@ -2401,8 +2473,11 @@
       <c r="X33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2469,65 +2544,68 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-600</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-400</v>
       </c>
       <c r="I35" s="3">
         <v>-400</v>
       </c>
       <c r="J35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-400</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>-400</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>-300</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
       <c r="Q35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R35" s="3">
         <v>-100</v>
       </c>
       <c r="S35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
         <v>-100</v>
       </c>
-      <c r="U35" s="3">
-        <v>0</v>
-      </c>
       <c r="V35" s="3">
         <v>0</v>
       </c>
@@ -2537,81 +2615,87 @@
       <c r="X35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42551</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2636,8 +2720,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2662,23 +2747,24 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>500</v>
+      </c>
+      <c r="E41" s="3">
         <v>600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>100</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
       <c r="H41" s="3">
         <v>0</v>
       </c>
@@ -2724,14 +2810,17 @@
       <c r="V41" s="3">
         <v>0</v>
       </c>
-      <c r="W41" s="3" t="s">
-        <v>4</v>
+      <c r="W41" s="3">
+        <v>0</v>
       </c>
       <c r="X41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2798,8 +2887,11 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2848,26 +2940,29 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>4</v>
+      <c r="S43" s="3">
+        <v>0</v>
       </c>
       <c r="T43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U43" s="3">
-        <v>0</v>
+      <c r="U43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V43" s="3">
         <v>0</v>
       </c>
-      <c r="W43" s="3" t="s">
-        <v>4</v>
+      <c r="W43" s="3">
+        <v>0</v>
       </c>
       <c r="X43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2934,8 +3029,11 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2949,11 +3047,11 @@
         <v>0</v>
       </c>
       <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
         <v>100</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
       <c r="I45" s="3">
         <v>0</v>
       </c>
@@ -2969,8 +3067,8 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>4</v>
+      <c r="N45" s="3">
+        <v>0</v>
       </c>
       <c r="O45" s="3" t="s">
         <v>4</v>
@@ -2984,8 +3082,8 @@
       <c r="R45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S45" s="3">
-        <v>0</v>
+      <c r="S45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T45" s="3">
         <v>0</v>
@@ -3002,26 +3100,29 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>500</v>
+      </c>
+      <c r="E46" s="3">
         <v>600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>100</v>
       </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
       <c r="I46" s="3">
         <v>0</v>
       </c>
@@ -3064,14 +3165,17 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-      <c r="W46" s="3" t="s">
-        <v>4</v>
+      <c r="W46" s="3">
+        <v>0</v>
       </c>
       <c r="X46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3112,7 +3216,7 @@
         <v>0</v>
       </c>
       <c r="P47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q47" s="3">
         <v>100</v>
@@ -3127,30 +3231,33 @@
         <v>100</v>
       </c>
       <c r="U47" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="V47" s="3">
         <v>500</v>
       </c>
-      <c r="W47" s="3" t="s">
-        <v>4</v>
+      <c r="W47" s="3">
+        <v>500</v>
       </c>
       <c r="X47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
-        <v>100</v>
+      <c r="D48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E48" s="3">
         <v>100</v>
       </c>
       <c r="F48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G48" s="3">
         <v>0</v>
@@ -3200,37 +3307,40 @@
       <c r="V48" s="3">
         <v>0</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>4</v>
+      <c r="W48" s="3">
+        <v>0</v>
       </c>
       <c r="X48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
@@ -3274,8 +3384,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3342,8 +3455,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3410,8 +3526,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3478,8 +3597,11 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3546,26 +3668,29 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E54" s="3">
         <v>600</v>
       </c>
       <c r="F54" s="3">
+        <v>600</v>
+      </c>
+      <c r="G54" s="3">
         <v>200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>100</v>
       </c>
-      <c r="H54" s="3">
-        <v>0</v>
-      </c>
       <c r="I54" s="3">
         <v>0</v>
       </c>
@@ -3588,34 +3713,37 @@
         <v>0</v>
       </c>
       <c r="P54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q54" s="3">
         <v>100</v>
       </c>
       <c r="R54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S54" s="3">
         <v>200</v>
       </c>
       <c r="T54" s="3">
+        <v>200</v>
+      </c>
+      <c r="U54" s="3">
         <v>100</v>
-      </c>
-      <c r="U54" s="3">
-        <v>500</v>
       </c>
       <c r="V54" s="3">
         <v>500</v>
       </c>
-      <c r="W54" s="3" t="s">
-        <v>4</v>
+      <c r="W54" s="3">
+        <v>500</v>
       </c>
       <c r="X54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3640,8 +3768,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3666,8 +3795,9 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3684,7 +3814,7 @@
         <v>0</v>
       </c>
       <c r="H57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I57" s="3">
         <v>100</v>
@@ -3702,7 +3832,7 @@
         <v>100</v>
       </c>
       <c r="N57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O57" s="3">
         <v>0</v>
@@ -3728,31 +3858,34 @@
       <c r="V57" s="3">
         <v>0</v>
       </c>
-      <c r="W57" s="3" t="s">
-        <v>4</v>
+      <c r="W57" s="3">
+        <v>0</v>
       </c>
       <c r="X57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>700</v>
+      </c>
+      <c r="E58" s="3">
         <v>500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>200</v>
-      </c>
-      <c r="F58" s="3">
-        <v>100</v>
       </c>
       <c r="G58" s="3">
         <v>100</v>
       </c>
       <c r="H58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I58" s="3">
         <v>200</v>
@@ -3770,13 +3903,13 @@
         <v>200</v>
       </c>
       <c r="N58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O58" s="3">
         <v>100</v>
       </c>
       <c r="P58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
@@ -3791,19 +3924,22 @@
         <v>0</v>
       </c>
       <c r="U58" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="V58" s="3">
         <v>400</v>
       </c>
-      <c r="W58" s="3" t="s">
-        <v>4</v>
+      <c r="W58" s="3">
+        <v>400</v>
       </c>
       <c r="X58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3811,7 +3947,7 @@
         <v>100</v>
       </c>
       <c r="E59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F59" s="3">
         <v>0</v>
@@ -3826,11 +3962,11 @@
         <v>0</v>
       </c>
       <c r="J59" s="3">
+        <v>0</v>
+      </c>
+      <c r="K59" s="3">
         <v>100</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
       <c r="L59" s="3">
         <v>0</v>
       </c>
@@ -3843,8 +3979,8 @@
       <c r="O59" s="3">
         <v>0</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>4</v>
+      <c r="P59" s="3">
+        <v>0</v>
       </c>
       <c r="Q59" s="3" t="s">
         <v>4</v>
@@ -3852,8 +3988,8 @@
       <c r="R59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S59" s="3">
-        <v>0</v>
+      <c r="S59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T59" s="3">
         <v>0</v>
@@ -3870,25 +4006,28 @@
       <c r="X59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>800</v>
+      </c>
+      <c r="E60" s="3">
         <v>500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>200</v>
-      </c>
-      <c r="F60" s="3">
-        <v>100</v>
       </c>
       <c r="G60" s="3">
         <v>100</v>
       </c>
       <c r="H60" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="I60" s="3">
         <v>300</v>
@@ -3906,13 +4045,13 @@
         <v>300</v>
       </c>
       <c r="N60" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="O60" s="3">
         <v>100</v>
       </c>
       <c r="P60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q60" s="3">
         <v>0</v>
@@ -3927,19 +4066,22 @@
         <v>0</v>
       </c>
       <c r="U60" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="V60" s="3">
         <v>400</v>
       </c>
-      <c r="W60" s="3" t="s">
-        <v>4</v>
+      <c r="W60" s="3">
+        <v>400</v>
       </c>
       <c r="X60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4006,8 +4148,11 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4074,8 +4219,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4142,8 +4290,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4210,8 +4361,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4278,25 +4432,28 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>800</v>
+      </c>
+      <c r="E66" s="3">
         <v>500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>200</v>
-      </c>
-      <c r="F66" s="3">
-        <v>100</v>
       </c>
       <c r="G66" s="3">
         <v>100</v>
       </c>
       <c r="H66" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="I66" s="3">
         <v>300</v>
@@ -4314,13 +4471,13 @@
         <v>300</v>
       </c>
       <c r="N66" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="O66" s="3">
         <v>100</v>
       </c>
       <c r="P66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q66" s="3">
         <v>0</v>
@@ -4335,19 +4492,22 @@
         <v>0</v>
       </c>
       <c r="U66" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="V66" s="3">
         <v>400</v>
       </c>
-      <c r="W66" s="3" t="s">
-        <v>4</v>
+      <c r="W66" s="3">
+        <v>400</v>
       </c>
       <c r="X66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4372,8 +4532,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4440,8 +4601,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4508,8 +4672,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4576,8 +4743,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4644,76 +4814,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-7800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-7000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-6300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-6000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-5300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-4900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-4500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-4400</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-4000</v>
       </c>
       <c r="M72" s="3">
         <v>-4000</v>
       </c>
       <c r="N72" s="3">
-        <v>-3500</v>
+        <v>-4000</v>
       </c>
       <c r="O72" s="3">
         <v>-3500</v>
       </c>
       <c r="P72" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-3300</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-3200</v>
       </c>
       <c r="R72" s="3">
         <v>-3200</v>
       </c>
       <c r="S72" s="3">
-        <v>-3100</v>
+        <v>-3200</v>
       </c>
       <c r="T72" s="3">
         <v>-3100</v>
       </c>
       <c r="U72" s="3">
-        <v>-3000</v>
+        <v>-3100</v>
       </c>
       <c r="V72" s="3">
         <v>-3000</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>4</v>
+      <c r="W72" s="3">
+        <v>-3000</v>
       </c>
       <c r="X72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4780,8 +4956,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4848,8 +5027,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4916,25 +5098,28 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E76" s="3">
         <v>100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>400</v>
       </c>
-      <c r="F76" s="3">
-        <v>0</v>
-      </c>
       <c r="G76" s="3">
         <v>0</v>
       </c>
       <c r="H76" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="I76" s="3">
         <v>-300</v>
@@ -4943,34 +5128,34 @@
         <v>-300</v>
       </c>
       <c r="K76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L76" s="3">
         <v>-200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-200</v>
-      </c>
-      <c r="N76" s="3">
-        <v>-100</v>
       </c>
       <c r="O76" s="3">
         <v>-100</v>
       </c>
       <c r="P76" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Q76" s="3">
         <v>100</v>
       </c>
       <c r="R76" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S76" s="3">
         <v>200</v>
       </c>
       <c r="T76" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U76" s="3">
         <v>100</v>
@@ -4978,14 +5163,17 @@
       <c r="V76" s="3">
         <v>100</v>
       </c>
-      <c r="W76" s="3" t="s">
-        <v>4</v>
+      <c r="W76" s="3">
+        <v>100</v>
       </c>
       <c r="X76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5052,138 +5240,144 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42551</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-600</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-400</v>
       </c>
       <c r="I81" s="3">
         <v>-400</v>
       </c>
       <c r="J81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-400</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>-400</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>-300</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
       <c r="Q81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R81" s="3">
         <v>-100</v>
       </c>
       <c r="S81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3">
         <v>-100</v>
       </c>
-      <c r="U81" s="3">
-        <v>0</v>
-      </c>
       <c r="V81" s="3">
         <v>0</v>
       </c>
@@ -5193,8 +5387,11 @@
       <c r="X81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5219,8 +5416,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5287,8 +5485,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5355,8 +5556,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5423,8 +5627,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5491,8 +5698,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5559,8 +5769,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5627,8 +5840,11 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5651,34 +5867,34 @@
         <v>-100</v>
       </c>
       <c r="J89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
       </c>
       <c r="L89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M89" s="3">
         <v>-100</v>
       </c>
       <c r="N89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
       <c r="Q89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R89" s="3">
         <v>-100</v>
       </c>
       <c r="S89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T89" s="3">
         <v>0</v>
@@ -5695,8 +5911,11 @@
       <c r="X89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5721,8 +5940,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5789,8 +6009,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5857,8 +6080,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5925,13 +6151,16 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -5951,8 +6180,8 @@
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>4</v>
@@ -5963,12 +6192,12 @@
       <c r="N94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O94" s="3">
+      <c r="O94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P94" s="3">
         <v>100</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
@@ -5976,25 +6205,28 @@
         <v>0</v>
       </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>300</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
       <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
         <v>-300</v>
       </c>
-      <c r="W94" s="3">
-        <v>0</v>
-      </c>
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6019,8 +6251,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6087,8 +6320,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6155,8 +6391,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6223,8 +6462,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6291,32 +6533,35 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
@@ -6324,43 +6569,46 @@
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R100" s="3">
         <v>100</v>
       </c>
       <c r="S100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>-200</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>300</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
       <c r="X100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6427,23 +6675,26 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>100</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
@@ -6493,6 +6744,9 @@
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BEGI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BEGI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="92">
   <si>
     <t>BEGI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,108 +665,116 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42551</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -836,8 +844,14 @@
       <c r="Y8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -865,8 +879,8 @@
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L9" s="3">
-        <v>0</v>
+      <c r="L9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>4</v>
@@ -877,20 +891,20 @@
       <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>4</v>
+      <c r="P9" s="3">
+        <v>0</v>
       </c>
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R9" s="3">
-        <v>0</v>
+      <c r="R9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T9" s="3" t="s">
-        <v>4</v>
+      <c r="T9" s="3">
+        <v>0</v>
       </c>
       <c r="U9" s="3" t="s">
         <v>4</v>
@@ -907,8 +921,14 @@
       <c r="Y9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +956,8 @@
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L10" s="3">
-        <v>0</v>
+      <c r="L10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>4</v>
@@ -948,20 +968,20 @@
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>4</v>
+      <c r="P10" s="3">
+        <v>0</v>
       </c>
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R10" s="3">
-        <v>0</v>
+      <c r="R10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>4</v>
+      <c r="T10" s="3">
+        <v>0</v>
       </c>
       <c r="U10" s="3" t="s">
         <v>4</v>
@@ -978,8 +998,14 @@
       <c r="Y10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1005,8 +1031,10 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1076,8 +1104,14 @@
       <c r="Y12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1147,43 +1181,49 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3">
         <v>-200</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>100</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>400</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>300</v>
-      </c>
-      <c r="J14" s="3">
-        <v>300</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
       </c>
       <c r="L14" s="3">
         <v>300</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>300</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
@@ -1197,11 +1237,11 @@
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
@@ -1218,8 +1258,14 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1235,11 +1281,11 @@
       <c r="G15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
+      <c r="H15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J15" s="3">
         <v>0</v>
@@ -1286,11 +1332,17 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-      <c r="Y15" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,65 +1365,67 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E17" s="3">
+        <v>100</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
         <v>400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>500</v>
       </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
         <v>100</v>
       </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
         <v>200</v>
       </c>
-      <c r="Q17" s="3">
-        <v>0</v>
-      </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+      <c r="T17" s="3">
         <v>100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>100</v>
       </c>
-      <c r="T17" s="3">
-        <v>0</v>
-      </c>
-      <c r="U17" s="3">
-        <v>0</v>
-      </c>
       <c r="V17" s="3">
         <v>0</v>
       </c>
@@ -1384,8 +1438,14 @@
       <c r="Y17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1393,56 +1453,56 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
         <v>-400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-500</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
         <v>-100</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
         <v>-200</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
         <v>-100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-100</v>
       </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
-      <c r="U18" s="3">
-        <v>0</v>
-      </c>
       <c r="V18" s="3">
         <v>0</v>
       </c>
@@ -1455,8 +1515,14 @@
       <c r="Y18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,8 +1548,10 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1512,26 +1580,26 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-300</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
@@ -1539,22 +1607,28 @@
         <v>0</v>
       </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>-100</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
       <c r="X20" s="3">
         <v>0</v>
       </c>
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1570,23 +1644,23 @@
       <c r="G21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="3">
         <v>-500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-300</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-400</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-100</v>
       </c>
       <c r="L21" s="3">
         <v>-400</v>
       </c>
       <c r="M21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N21" s="3">
         <v>-400</v>
@@ -1595,19 +1669,19 @@
         <v>0</v>
       </c>
       <c r="P21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+      <c r="R21" s="3">
         <v>-300</v>
       </c>
-      <c r="Q21" s="3">
-        <v>0</v>
-      </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
+        <v>0</v>
+      </c>
+      <c r="T21" s="3">
         <v>-100</v>
-      </c>
-      <c r="S21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="T21" s="3">
-        <v>0</v>
       </c>
       <c r="U21" s="3">
         <v>-100</v>
@@ -1616,7 +1690,7 @@
         <v>0</v>
       </c>
       <c r="W21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X21" s="3">
         <v>0</v>
@@ -1624,43 +1698,49 @@
       <c r="Y21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E22" s="3">
         <v>400</v>
       </c>
       <c r="F22" s="3">
+        <v>400</v>
+      </c>
+      <c r="G22" s="3">
+        <v>400</v>
+      </c>
+      <c r="H22" s="3">
         <v>300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>100</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>4</v>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>4</v>
@@ -1677,11 +1757,11 @@
       <c r="S22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
-      </c>
-      <c r="U22" s="3">
-        <v>0</v>
+      <c r="T22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V22" s="3">
         <v>0</v>
@@ -1695,40 +1775,46 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F23" s="3">
         <v>-400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-400</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-400</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-100</v>
       </c>
       <c r="L23" s="3">
         <v>-400</v>
       </c>
       <c r="M23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N23" s="3">
         <v>-400</v>
@@ -1737,19 +1823,19 @@
         <v>0</v>
       </c>
       <c r="P23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
         <v>-300</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
         <v>-100</v>
-      </c>
-      <c r="S23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="T23" s="3">
-        <v>0</v>
       </c>
       <c r="U23" s="3">
         <v>-100</v>
@@ -1758,7 +1844,7 @@
         <v>0</v>
       </c>
       <c r="W23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X23" s="3">
         <v>0</v>
@@ -1766,8 +1852,14 @@
       <c r="Y23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1837,8 +1929,14 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,40 +2006,46 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F26" s="3">
         <v>-400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-400</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-400</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-100</v>
       </c>
       <c r="L26" s="3">
         <v>-400</v>
       </c>
       <c r="M26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N26" s="3">
         <v>-400</v>
@@ -1950,19 +2054,19 @@
         <v>0</v>
       </c>
       <c r="P26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
         <v>-300</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
         <v>-100</v>
-      </c>
-      <c r="S26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="T26" s="3">
-        <v>0</v>
       </c>
       <c r="U26" s="3">
         <v>-100</v>
@@ -1971,7 +2075,7 @@
         <v>0</v>
       </c>
       <c r="W26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X26" s="3">
         <v>0</v>
@@ -1979,40 +2083,46 @@
       <c r="Y26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F27" s="3">
         <v>-400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-400</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-400</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-100</v>
       </c>
       <c r="L27" s="3">
         <v>-400</v>
       </c>
       <c r="M27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N27" s="3">
         <v>-400</v>
@@ -2021,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="P27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>-300</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
         <v>-100</v>
-      </c>
-      <c r="S27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="T27" s="3">
-        <v>0</v>
       </c>
       <c r="U27" s="3">
         <v>-100</v>
@@ -2042,7 +2152,7 @@
         <v>0</v>
       </c>
       <c r="W27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X27" s="3">
         <v>0</v>
@@ -2050,8 +2160,14 @@
       <c r="Y27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2237,14 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2192,8 +2314,14 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2391,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,8 +2468,14 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2364,26 +2504,26 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>300</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
@@ -2391,54 +2531,60 @@
         <v>0</v>
       </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>100</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
       <c r="X32" s="3">
         <v>0</v>
       </c>
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F33" s="3">
         <v>-400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-400</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-400</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-100</v>
       </c>
       <c r="L33" s="3">
         <v>-400</v>
       </c>
       <c r="M33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N33" s="3">
         <v>-400</v>
@@ -2447,19 +2593,19 @@
         <v>0</v>
       </c>
       <c r="P33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>-300</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
         <v>-100</v>
-      </c>
-      <c r="S33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="T33" s="3">
-        <v>0</v>
       </c>
       <c r="U33" s="3">
         <v>-100</v>
@@ -2468,7 +2614,7 @@
         <v>0</v>
       </c>
       <c r="W33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X33" s="3">
         <v>0</v>
@@ -2476,8 +2622,14 @@
       <c r="Y33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,40 +2699,46 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F35" s="3">
         <v>-400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-400</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-400</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-100</v>
       </c>
       <c r="L35" s="3">
         <v>-400</v>
       </c>
       <c r="M35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N35" s="3">
         <v>-400</v>
@@ -2589,19 +2747,19 @@
         <v>0</v>
       </c>
       <c r="P35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>-300</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
         <v>-100</v>
-      </c>
-      <c r="S35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="T35" s="3">
-        <v>0</v>
       </c>
       <c r="U35" s="3">
         <v>-100</v>
@@ -2610,7 +2768,7 @@
         <v>0</v>
       </c>
       <c r="W35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X35" s="3">
         <v>0</v>
@@ -2618,84 +2776,96 @@
       <c r="Y35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42551</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2891,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,29 +2920,31 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="E41" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="F41" s="3">
         <v>500</v>
       </c>
       <c r="G41" s="3">
+        <v>600</v>
+      </c>
+      <c r="H41" s="3">
+        <v>500</v>
+      </c>
+      <c r="I41" s="3">
         <v>100</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
@@ -2813,14 +2987,20 @@
       <c r="W41" s="3">
         <v>0</v>
       </c>
-      <c r="X41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y41" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2890,8 +3070,14 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2943,26 +3129,32 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V43" s="3">
-        <v>0</v>
-      </c>
-      <c r="W43" s="3">
-        <v>0</v>
-      </c>
-      <c r="X43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3032,8 +3224,14 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3050,14 +3248,14 @@
         <v>0</v>
       </c>
       <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
         <v>100</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
       <c r="K45" s="3">
         <v>0</v>
       </c>
@@ -3070,11 +3268,11 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P45" s="3" t="s">
-        <v>4</v>
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0</v>
       </c>
       <c r="Q45" s="3" t="s">
         <v>4</v>
@@ -3085,11 +3283,11 @@
       <c r="S45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T45" s="3">
-        <v>0</v>
-      </c>
-      <c r="U45" s="3">
-        <v>0</v>
+      <c r="T45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V45" s="3">
         <v>0</v>
@@ -3103,32 +3301,38 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="E46" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="F46" s="3">
         <v>500</v>
       </c>
       <c r="G46" s="3">
+        <v>600</v>
+      </c>
+      <c r="H46" s="3">
+        <v>500</v>
+      </c>
+      <c r="I46" s="3">
         <v>200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>100</v>
       </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
       <c r="K46" s="3">
         <v>0</v>
       </c>
@@ -3168,14 +3372,20 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-      <c r="X46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y46" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3219,10 +3429,10 @@
         <v>0</v>
       </c>
       <c r="Q47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S47" s="3">
         <v>100</v>
@@ -3234,37 +3444,43 @@
         <v>100</v>
       </c>
       <c r="V47" s="3">
+        <v>100</v>
+      </c>
+      <c r="W47" s="3">
+        <v>100</v>
+      </c>
+      <c r="X47" s="3">
         <v>500</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>500</v>
       </c>
-      <c r="X47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y47" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48" s="3">
         <v>100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>100</v>
       </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
       <c r="I48" s="3">
         <v>0</v>
       </c>
@@ -3310,25 +3526,31 @@
       <c r="W48" s="3">
         <v>0</v>
       </c>
-      <c r="X48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y48" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
         <v>200</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>4</v>
+      <c r="E49" s="3">
+        <v>200</v>
+      </c>
+      <c r="F49" s="3">
+        <v>200</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>4</v>
@@ -3342,11 +3564,11 @@
       <c r="J49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
-      </c>
-      <c r="L49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
@@ -3387,8 +3609,14 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3686,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,8 +3763,14 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3600,8 +3840,14 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,32 +3917,38 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="E54" s="3">
         <v>600</v>
       </c>
       <c r="F54" s="3">
+        <v>700</v>
+      </c>
+      <c r="G54" s="3">
         <v>600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
+        <v>600</v>
+      </c>
+      <c r="I54" s="3">
         <v>200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>100</v>
       </c>
-      <c r="I54" s="3">
-        <v>0</v>
-      </c>
-      <c r="J54" s="3">
-        <v>0</v>
-      </c>
       <c r="K54" s="3">
         <v>0</v>
       </c>
@@ -3716,34 +3968,40 @@
         <v>0</v>
       </c>
       <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+      <c r="R54" s="3">
+        <v>0</v>
+      </c>
+      <c r="S54" s="3">
         <v>100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>500</v>
       </c>
-      <c r="X54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y54" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +4027,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,8 +4056,10 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3817,10 +4079,10 @@
         <v>0</v>
       </c>
       <c r="I57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K57" s="3">
         <v>100</v>
@@ -3835,10 +4097,10 @@
         <v>100</v>
       </c>
       <c r="O57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q57" s="3">
         <v>0</v>
@@ -3861,37 +4123,43 @@
       <c r="W57" s="3">
         <v>0</v>
       </c>
-      <c r="X57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y57" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>800</v>
+      </c>
+      <c r="E58" s="3">
+        <v>800</v>
+      </c>
+      <c r="F58" s="3">
         <v>700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>100</v>
-      </c>
-      <c r="I58" s="3">
-        <v>200</v>
-      </c>
-      <c r="J58" s="3">
-        <v>200</v>
       </c>
       <c r="K58" s="3">
         <v>200</v>
@@ -3906,17 +4174,17 @@
         <v>200</v>
       </c>
       <c r="O58" s="3">
+        <v>200</v>
+      </c>
+      <c r="P58" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q58" s="3">
         <v>100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>100</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
-      </c>
-      <c r="R58" s="3">
-        <v>0</v>
-      </c>
       <c r="S58" s="3">
         <v>0</v>
       </c>
@@ -3927,19 +4195,25 @@
         <v>0</v>
       </c>
       <c r="V58" s="3">
+        <v>0</v>
+      </c>
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+      <c r="X58" s="3">
         <v>400</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>400</v>
       </c>
-      <c r="X58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y58" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3950,10 +4224,10 @@
         <v>100</v>
       </c>
       <c r="F59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H59" s="3">
         <v>0</v>
@@ -3965,14 +4239,14 @@
         <v>0</v>
       </c>
       <c r="K59" s="3">
+        <v>0</v>
+      </c>
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3">
         <v>100</v>
       </c>
-      <c r="L59" s="3">
-        <v>0</v>
-      </c>
-      <c r="M59" s="3">
-        <v>0</v>
-      </c>
       <c r="N59" s="3">
         <v>0</v>
       </c>
@@ -3982,20 +4256,20 @@
       <c r="P59" s="3">
         <v>0</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R59" s="3" t="s">
-        <v>4</v>
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+      <c r="R59" s="3">
+        <v>0</v>
       </c>
       <c r="S59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T59" s="3">
-        <v>0</v>
-      </c>
-      <c r="U59" s="3">
-        <v>0</v>
+      <c r="T59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V59" s="3">
         <v>0</v>
@@ -4009,31 +4283,37 @@
       <c r="Y59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>900</v>
+      </c>
+      <c r="F60" s="3">
         <v>800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>100</v>
-      </c>
-      <c r="I60" s="3">
-        <v>300</v>
-      </c>
-      <c r="J60" s="3">
-        <v>300</v>
       </c>
       <c r="K60" s="3">
         <v>300</v>
@@ -4048,17 +4328,17 @@
         <v>300</v>
       </c>
       <c r="O60" s="3">
+        <v>300</v>
+      </c>
+      <c r="P60" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q60" s="3">
         <v>100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>100</v>
       </c>
-      <c r="Q60" s="3">
-        <v>0</v>
-      </c>
-      <c r="R60" s="3">
-        <v>0</v>
-      </c>
       <c r="S60" s="3">
         <v>0</v>
       </c>
@@ -4069,19 +4349,25 @@
         <v>0</v>
       </c>
       <c r="V60" s="3">
+        <v>0</v>
+      </c>
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+      <c r="X60" s="3">
         <v>400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>400</v>
       </c>
-      <c r="X60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y60" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4151,8 +4437,14 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4222,8 +4514,14 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4591,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4668,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,31 +4745,37 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>900</v>
+      </c>
+      <c r="F66" s="3">
         <v>800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>100</v>
-      </c>
-      <c r="I66" s="3">
-        <v>300</v>
-      </c>
-      <c r="J66" s="3">
-        <v>300</v>
       </c>
       <c r="K66" s="3">
         <v>300</v>
@@ -4474,17 +4790,17 @@
         <v>300</v>
       </c>
       <c r="O66" s="3">
+        <v>300</v>
+      </c>
+      <c r="P66" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q66" s="3">
         <v>100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>100</v>
       </c>
-      <c r="Q66" s="3">
-        <v>0</v>
-      </c>
-      <c r="R66" s="3">
-        <v>0</v>
-      </c>
       <c r="S66" s="3">
         <v>0</v>
       </c>
@@ -4495,19 +4811,25 @@
         <v>0</v>
       </c>
       <c r="V66" s="3">
+        <v>0</v>
+      </c>
+      <c r="W66" s="3">
+        <v>0</v>
+      </c>
+      <c r="X66" s="3">
         <v>400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>400</v>
       </c>
-      <c r="X66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y66" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4855,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4928,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +5005,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,8 +5082,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,79 +5159,91 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="F72" s="3">
         <v>-8100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-7800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-7000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-6300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-6000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-5300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-4900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-4500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-4400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-4000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-4000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-3500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-3300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-3200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-3200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-3100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-3100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-3000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-3000</v>
       </c>
-      <c r="X72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y72" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5313,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5390,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,37 +5467,43 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F76" s="3">
         <v>-100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>400</v>
       </c>
-      <c r="G76" s="3">
-        <v>0</v>
-      </c>
-      <c r="H76" s="3">
-        <v>0</v>
-      </c>
       <c r="I76" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="J76" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="K76" s="3">
         <v>-300</v>
       </c>
       <c r="L76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="M76" s="3">
         <v>-300</v>
@@ -5140,40 +5512,46 @@
         <v>-200</v>
       </c>
       <c r="O76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q76" s="3">
         <v>-100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>200</v>
-      </c>
-      <c r="U76" s="3">
-        <v>100</v>
-      </c>
-      <c r="V76" s="3">
-        <v>100</v>
       </c>
       <c r="W76" s="3">
         <v>100</v>
       </c>
-      <c r="X76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y76" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="X76" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y76" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,116 +5621,128 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42551</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F81" s="3">
         <v>-400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-400</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-400</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-100</v>
       </c>
       <c r="L81" s="3">
         <v>-400</v>
       </c>
       <c r="M81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N81" s="3">
         <v>-400</v>
@@ -5361,19 +5751,19 @@
         <v>0</v>
       </c>
       <c r="P81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>-300</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
         <v>-100</v>
-      </c>
-      <c r="S81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="T81" s="3">
-        <v>0</v>
       </c>
       <c r="U81" s="3">
         <v>-100</v>
@@ -5382,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="W81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X81" s="3">
         <v>0</v>
@@ -5390,8 +5780,14 @@
       <c r="Y81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,8 +5813,10 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5488,8 +5886,14 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5963,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +6040,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +6117,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +6194,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,13 +6271,19 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E89" s="3">
         <v>-100</v>
@@ -5870,38 +6304,38 @@
         <v>-100</v>
       </c>
       <c r="K89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>-200</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
-      <c r="U89" s="3">
-        <v>0</v>
-      </c>
       <c r="V89" s="3">
         <v>0</v>
       </c>
@@ -5914,8 +6348,14 @@
       <c r="Y89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,8 +6381,10 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6012,8 +6454,14 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6531,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,20 +6608,26 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
@@ -6183,11 +6643,11 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>4</v>
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>4</v>
@@ -6195,38 +6655,44 @@
       <c r="O94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P94" s="3">
+      <c r="P94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R94" s="3">
         <v>100</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
         <v>0</v>
       </c>
       <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
         <v>100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>300</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
         <v>-300</v>
       </c>
-      <c r="X94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,8 +6718,10 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6323,8 +6791,14 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6868,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6945,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,28 +7022,34 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
-        <v>200</v>
-      </c>
       <c r="F100" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="G100" s="3">
         <v>200</v>
       </c>
       <c r="H100" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="I100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J100" s="3">
         <v>100</v>
@@ -6566,19 +7058,19 @@
         <v>0</v>
       </c>
       <c r="L100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>200</v>
-      </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3">
-        <v>100</v>
       </c>
       <c r="Q100" s="3">
         <v>0</v>
@@ -6587,28 +7079,34 @@
         <v>100</v>
       </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>100</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
+        <v>100</v>
+      </c>
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>-200</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
         <v>300</v>
       </c>
-      <c r="X100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6678,28 +7176,34 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="F102" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G102" s="3">
         <v>100</v>
       </c>
       <c r="H102" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="I102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J102" s="3">
         <v>0</v>
@@ -6747,6 +7251,12 @@
         <v>0</v>
       </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BEGI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BEGI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="92">
   <si>
     <t>BEGI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,116 +665,120 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42551</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -850,8 +854,11 @@
       <c r="AA8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -885,17 +892,17 @@
       <c r="M9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P9" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>4</v>
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>0</v>
       </c>
       <c r="R9" s="3" t="s">
         <v>4</v>
@@ -903,11 +910,11 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T9" s="3">
-        <v>0</v>
-      </c>
-      <c r="U9" s="3" t="s">
-        <v>4</v>
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U9" s="3">
+        <v>0</v>
       </c>
       <c r="V9" s="3" t="s">
         <v>4</v>
@@ -927,8 +934,11 @@
       <c r="AA9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -962,17 +972,17 @@
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P10" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>4</v>
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>0</v>
       </c>
       <c r="R10" s="3" t="s">
         <v>4</v>
@@ -980,11 +990,11 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T10" s="3">
-        <v>0</v>
-      </c>
-      <c r="U10" s="3" t="s">
-        <v>4</v>
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U10" s="3">
+        <v>0</v>
       </c>
       <c r="V10" s="3" t="s">
         <v>4</v>
@@ -1004,8 +1014,11 @@
       <c r="AA10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1033,8 +1046,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1110,8 +1124,11 @@
       <c r="AA12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1187,47 +1204,50 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3">
         <v>-200</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>100</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>400</v>
-      </c>
-      <c r="K14" s="3">
-        <v>300</v>
       </c>
       <c r="L14" s="3">
         <v>300</v>
       </c>
       <c r="M14" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>300</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1243,8 +1263,8 @@
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="U14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
@@ -1264,28 +1284,31 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>4</v>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
       </c>
       <c r="J15" s="3">
         <v>0</v>
@@ -1338,11 +1361,14 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-      <c r="AA15" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1367,67 +1393,68 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>100</v>
+      </c>
+      <c r="E17" s="3">
         <v>200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>100</v>
       </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
       <c r="G17" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H17" s="3">
         <v>400</v>
       </c>
       <c r="I17" s="3">
+        <v>400</v>
+      </c>
+      <c r="J17" s="3">
         <v>200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>500</v>
       </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
       <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3">
         <v>100</v>
       </c>
-      <c r="Q17" s="3">
-        <v>0</v>
-      </c>
       <c r="R17" s="3">
+        <v>0</v>
+      </c>
+      <c r="S17" s="3">
         <v>200</v>
       </c>
-      <c r="S17" s="3">
-        <v>0</v>
-      </c>
       <c r="T17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U17" s="3">
         <v>100</v>
       </c>
       <c r="V17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W17" s="3">
         <v>0</v>
@@ -1444,8 +1471,11 @@
       <c r="AA17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1453,58 +1483,58 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
       <c r="G18" s="3">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="H18" s="3">
         <v>-400</v>
       </c>
       <c r="I18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-500</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
       <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
       <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
         <v>-200</v>
       </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
       <c r="T18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U18" s="3">
         <v>-100</v>
       </c>
       <c r="V18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W18" s="3">
         <v>0</v>
@@ -1521,8 +1551,11 @@
       <c r="AA18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1550,8 +1583,9 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1586,23 +1620,23 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-300</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
@@ -1613,11 +1647,11 @@
         <v>0</v>
       </c>
       <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <v>-100</v>
       </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
       <c r="Y20" s="3">
         <v>0</v>
       </c>
@@ -1627,8 +1661,11 @@
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1650,51 +1687,51 @@
       <c r="I21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="3">
         <v>-500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-400</v>
       </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
       <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-400</v>
       </c>
-      <c r="Q21" s="3">
-        <v>0</v>
-      </c>
       <c r="R21" s="3">
+        <v>0</v>
+      </c>
+      <c r="S21" s="3">
         <v>-300</v>
       </c>
-      <c r="S21" s="3">
-        <v>0</v>
-      </c>
       <c r="T21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U21" s="3">
         <v>-100</v>
       </c>
       <c r="V21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W21" s="3">
+        <v>0</v>
+      </c>
+      <c r="X21" s="3">
         <v>-100</v>
       </c>
-      <c r="X21" s="3">
-        <v>0</v>
-      </c>
       <c r="Y21" s="3">
         <v>0</v>
       </c>
@@ -1704,16 +1741,19 @@
       <c r="AA21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>100</v>
+      </c>
+      <c r="E22" s="3">
         <v>200</v>
-      </c>
-      <c r="E22" s="3">
-        <v>400</v>
       </c>
       <c r="F22" s="3">
         <v>400</v>
@@ -1722,19 +1762,19 @@
         <v>400</v>
       </c>
       <c r="H22" s="3">
+        <v>400</v>
+      </c>
+      <c r="I22" s="3">
         <v>300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>200</v>
-      </c>
-      <c r="J22" s="3">
-        <v>100</v>
       </c>
       <c r="K22" s="3">
         <v>100</v>
       </c>
       <c r="L22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1742,8 +1782,8 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>4</v>
+      <c r="O22" s="3">
+        <v>0</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>4</v>
@@ -1763,8 +1803,8 @@
       <c r="U22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V22" s="3">
-        <v>0</v>
+      <c r="V22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W22" s="3">
         <v>0</v>
@@ -1781,74 +1821,77 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-600</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-400</v>
       </c>
       <c r="L23" s="3">
         <v>-400</v>
       </c>
       <c r="M23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-400</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
       <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-400</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
       <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
         <v>-300</v>
       </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
       <c r="T23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U23" s="3">
         <v>-100</v>
       </c>
       <c r="V23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W23" s="3">
+        <v>0</v>
+      </c>
+      <c r="X23" s="3">
         <v>-100</v>
       </c>
-      <c r="X23" s="3">
-        <v>0</v>
-      </c>
       <c r="Y23" s="3">
         <v>0</v>
       </c>
@@ -1858,8 +1901,11 @@
       <c r="AA23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1935,8 +1981,11 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2012,74 +2061,77 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-600</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-400</v>
       </c>
       <c r="L26" s="3">
         <v>-400</v>
       </c>
       <c r="M26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-400</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
       <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-400</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
       <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
         <v>-300</v>
       </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
       <c r="T26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U26" s="3">
         <v>-100</v>
       </c>
       <c r="V26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W26" s="3">
+        <v>0</v>
+      </c>
+      <c r="X26" s="3">
         <v>-100</v>
       </c>
-      <c r="X26" s="3">
-        <v>0</v>
-      </c>
       <c r="Y26" s="3">
         <v>0</v>
       </c>
@@ -2089,74 +2141,77 @@
       <c r="AA26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-600</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-400</v>
       </c>
       <c r="L27" s="3">
         <v>-400</v>
       </c>
       <c r="M27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-400</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
       <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-400</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
       <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>-300</v>
       </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
       <c r="T27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U27" s="3">
         <v>-100</v>
       </c>
       <c r="V27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W27" s="3">
+        <v>0</v>
+      </c>
+      <c r="X27" s="3">
         <v>-100</v>
       </c>
-      <c r="X27" s="3">
-        <v>0</v>
-      </c>
       <c r="Y27" s="3">
         <v>0</v>
       </c>
@@ -2166,8 +2221,11 @@
       <c r="AA27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2243,8 +2301,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2320,8 +2381,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2397,8 +2461,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2474,8 +2541,11 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2510,23 +2580,23 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>300</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>100</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
@@ -2537,11 +2607,11 @@
         <v>0</v>
       </c>
       <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>100</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
       <c r="Y32" s="3">
         <v>0</v>
       </c>
@@ -2551,74 +2621,77 @@
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-600</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-400</v>
       </c>
       <c r="L33" s="3">
         <v>-400</v>
       </c>
       <c r="M33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-400</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
       <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-400</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
       <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>-300</v>
       </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
       <c r="T33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U33" s="3">
         <v>-100</v>
       </c>
       <c r="V33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W33" s="3">
+        <v>0</v>
+      </c>
+      <c r="X33" s="3">
         <v>-100</v>
       </c>
-      <c r="X33" s="3">
-        <v>0</v>
-      </c>
       <c r="Y33" s="3">
         <v>0</v>
       </c>
@@ -2628,8 +2701,11 @@
       <c r="AA33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2705,74 +2781,77 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-600</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-400</v>
       </c>
       <c r="L35" s="3">
         <v>-400</v>
       </c>
       <c r="M35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-400</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
       <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-400</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
       <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>-300</v>
       </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
       <c r="T35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U35" s="3">
         <v>-100</v>
       </c>
       <c r="V35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W35" s="3">
+        <v>0</v>
+      </c>
+      <c r="X35" s="3">
         <v>-100</v>
       </c>
-      <c r="X35" s="3">
-        <v>0</v>
-      </c>
       <c r="Y35" s="3">
         <v>0</v>
       </c>
@@ -2782,90 +2861,96 @@
       <c r="AA35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42551</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2893,8 +2978,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2922,32 +3008,33 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100</v>
+      </c>
+      <c r="E41" s="3">
         <v>200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>100</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
@@ -2993,14 +3080,17 @@
       <c r="Y41" s="3">
         <v>0</v>
       </c>
-      <c r="Z41" s="3" t="s">
-        <v>4</v>
+      <c r="Z41" s="3">
+        <v>0</v>
       </c>
       <c r="AA41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3076,8 +3166,11 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3135,26 +3228,29 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>4</v>
+      <c r="V43" s="3">
+        <v>0</v>
       </c>
       <c r="W43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X43" s="3">
-        <v>0</v>
+      <c r="X43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-      <c r="Z43" s="3" t="s">
-        <v>4</v>
+      <c r="Z43" s="3">
+        <v>0</v>
       </c>
       <c r="AA43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3230,8 +3326,11 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3254,11 +3353,11 @@
         <v>0</v>
       </c>
       <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
         <v>100</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
       <c r="L45" s="3">
         <v>0</v>
       </c>
@@ -3274,8 +3373,8 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>4</v>
+      <c r="Q45" s="3">
+        <v>0</v>
       </c>
       <c r="R45" s="3" t="s">
         <v>4</v>
@@ -3289,8 +3388,8 @@
       <c r="U45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V45" s="3">
-        <v>0</v>
+      <c r="V45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W45" s="3">
         <v>0</v>
@@ -3307,35 +3406,38 @@
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>100</v>
+      </c>
+      <c r="E46" s="3">
         <v>200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>100</v>
       </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
       <c r="L46" s="3">
         <v>0</v>
       </c>
@@ -3378,14 +3480,17 @@
       <c r="Y46" s="3">
         <v>0</v>
       </c>
-      <c r="Z46" s="3" t="s">
-        <v>4</v>
+      <c r="Z46" s="3">
+        <v>0</v>
       </c>
       <c r="AA46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3435,7 +3540,7 @@
         <v>0</v>
       </c>
       <c r="S47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T47" s="3">
         <v>100</v>
@@ -3450,19 +3555,22 @@
         <v>100</v>
       </c>
       <c r="X47" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="Y47" s="3">
         <v>500</v>
       </c>
-      <c r="Z47" s="3" t="s">
-        <v>4</v>
+      <c r="Z47" s="3">
+        <v>500</v>
       </c>
       <c r="AA47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3475,14 +3583,14 @@
       <c r="F48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G48" s="3">
-        <v>100</v>
+      <c r="G48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H48" s="3">
         <v>100</v>
       </c>
       <c r="I48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J48" s="3">
         <v>0</v>
@@ -3532,14 +3640,17 @@
       <c r="Y48" s="3">
         <v>0</v>
       </c>
-      <c r="Z48" s="3" t="s">
-        <v>4</v>
+      <c r="Z48" s="3">
+        <v>0</v>
       </c>
       <c r="AA48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3552,8 +3663,8 @@
       <c r="F49" s="3">
         <v>200</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>4</v>
+      <c r="G49" s="3">
+        <v>200</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>4</v>
@@ -3570,8 +3681,8 @@
       <c r="L49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M49" s="3">
-        <v>0</v>
+      <c r="M49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
@@ -3615,8 +3726,11 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3692,8 +3806,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3769,8 +3886,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3846,8 +3966,11 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3923,35 +4046,38 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>300</v>
+      </c>
+      <c r="E54" s="3">
         <v>400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>700</v>
-      </c>
-      <c r="G54" s="3">
-        <v>600</v>
       </c>
       <c r="H54" s="3">
         <v>600</v>
       </c>
       <c r="I54" s="3">
+        <v>600</v>
+      </c>
+      <c r="J54" s="3">
         <v>200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>100</v>
       </c>
-      <c r="K54" s="3">
-        <v>0</v>
-      </c>
       <c r="L54" s="3">
         <v>0</v>
       </c>
@@ -3974,34 +4100,37 @@
         <v>0</v>
       </c>
       <c r="S54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T54" s="3">
         <v>100</v>
       </c>
       <c r="U54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V54" s="3">
         <v>200</v>
       </c>
       <c r="W54" s="3">
+        <v>200</v>
+      </c>
+      <c r="X54" s="3">
         <v>100</v>
-      </c>
-      <c r="X54" s="3">
-        <v>500</v>
       </c>
       <c r="Y54" s="3">
         <v>500</v>
       </c>
-      <c r="Z54" s="3" t="s">
-        <v>4</v>
+      <c r="Z54" s="3">
+        <v>500</v>
       </c>
       <c r="AA54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4029,8 +4158,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4058,13 +4188,14 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3">
         <v>0</v>
@@ -4085,7 +4216,7 @@
         <v>0</v>
       </c>
       <c r="K57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L57" s="3">
         <v>100</v>
@@ -4103,7 +4234,7 @@
         <v>100</v>
       </c>
       <c r="Q57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R57" s="3">
         <v>0</v>
@@ -4129,14 +4260,17 @@
       <c r="Y57" s="3">
         <v>0</v>
       </c>
-      <c r="Z57" s="3" t="s">
-        <v>4</v>
+      <c r="Z57" s="3">
+        <v>0</v>
       </c>
       <c r="AA57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4147,22 +4281,22 @@
         <v>800</v>
       </c>
       <c r="F58" s="3">
+        <v>800</v>
+      </c>
+      <c r="G58" s="3">
         <v>700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>200</v>
-      </c>
-      <c r="I58" s="3">
-        <v>100</v>
       </c>
       <c r="J58" s="3">
         <v>100</v>
       </c>
       <c r="K58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L58" s="3">
         <v>200</v>
@@ -4180,13 +4314,13 @@
         <v>200</v>
       </c>
       <c r="Q58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R58" s="3">
         <v>100</v>
       </c>
       <c r="S58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T58" s="3">
         <v>0</v>
@@ -4201,19 +4335,22 @@
         <v>0</v>
       </c>
       <c r="X58" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y58" s="3">
         <v>400</v>
       </c>
-      <c r="Z58" s="3" t="s">
-        <v>4</v>
+      <c r="Z58" s="3">
+        <v>400</v>
       </c>
       <c r="AA58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4230,7 +4367,7 @@
         <v>100</v>
       </c>
       <c r="H59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I59" s="3">
         <v>0</v>
@@ -4245,11 +4382,11 @@
         <v>0</v>
       </c>
       <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3">
         <v>100</v>
       </c>
-      <c r="N59" s="3">
-        <v>0</v>
-      </c>
       <c r="O59" s="3">
         <v>0</v>
       </c>
@@ -4262,8 +4399,8 @@
       <c r="R59" s="3">
         <v>0</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>4</v>
+      <c r="S59" s="3">
+        <v>0</v>
       </c>
       <c r="T59" s="3" t="s">
         <v>4</v>
@@ -4271,8 +4408,8 @@
       <c r="U59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V59" s="3">
-        <v>0</v>
+      <c r="V59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W59" s="3">
         <v>0</v>
@@ -4289,34 +4426,37 @@
       <c r="AA59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="E60" s="3">
         <v>900</v>
       </c>
       <c r="F60" s="3">
+        <v>900</v>
+      </c>
+      <c r="G60" s="3">
         <v>800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>200</v>
-      </c>
-      <c r="I60" s="3">
-        <v>100</v>
       </c>
       <c r="J60" s="3">
         <v>100</v>
       </c>
       <c r="K60" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="L60" s="3">
         <v>300</v>
@@ -4334,13 +4474,13 @@
         <v>300</v>
       </c>
       <c r="Q60" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="R60" s="3">
         <v>100</v>
       </c>
       <c r="S60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T60" s="3">
         <v>0</v>
@@ -4355,19 +4495,22 @@
         <v>0</v>
       </c>
       <c r="X60" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y60" s="3">
         <v>400</v>
       </c>
-      <c r="Z60" s="3" t="s">
-        <v>4</v>
+      <c r="Z60" s="3">
+        <v>400</v>
       </c>
       <c r="AA60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4443,8 +4586,11 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4520,8 +4666,11 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4597,8 +4746,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4674,8 +4826,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4751,34 +4906,37 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="E66" s="3">
         <v>900</v>
       </c>
       <c r="F66" s="3">
+        <v>900</v>
+      </c>
+      <c r="G66" s="3">
         <v>800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>200</v>
-      </c>
-      <c r="I66" s="3">
-        <v>100</v>
       </c>
       <c r="J66" s="3">
         <v>100</v>
       </c>
       <c r="K66" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="L66" s="3">
         <v>300</v>
@@ -4796,13 +4954,13 @@
         <v>300</v>
       </c>
       <c r="Q66" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="R66" s="3">
         <v>100</v>
       </c>
       <c r="S66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T66" s="3">
         <v>0</v>
@@ -4817,19 +4975,22 @@
         <v>0</v>
       </c>
       <c r="X66" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y66" s="3">
         <v>400</v>
       </c>
-      <c r="Z66" s="3" t="s">
-        <v>4</v>
+      <c r="Z66" s="3">
+        <v>400</v>
       </c>
       <c r="AA66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4857,8 +5018,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4934,8 +5096,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5011,8 +5176,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5088,8 +5256,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5165,85 +5336,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-9000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-8700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-8100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-7800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-7000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-6300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-6000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-5300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-4900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-4500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-4400</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-4000</v>
       </c>
       <c r="P72" s="3">
         <v>-4000</v>
       </c>
       <c r="Q72" s="3">
-        <v>-3500</v>
+        <v>-4000</v>
       </c>
       <c r="R72" s="3">
         <v>-3500</v>
       </c>
       <c r="S72" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="T72" s="3">
         <v>-3300</v>
-      </c>
-      <c r="T72" s="3">
-        <v>-3200</v>
       </c>
       <c r="U72" s="3">
         <v>-3200</v>
       </c>
       <c r="V72" s="3">
-        <v>-3100</v>
+        <v>-3200</v>
       </c>
       <c r="W72" s="3">
         <v>-3100</v>
       </c>
       <c r="X72" s="3">
-        <v>-3000</v>
+        <v>-3100</v>
       </c>
       <c r="Y72" s="3">
         <v>-3000</v>
       </c>
-      <c r="Z72" s="3" t="s">
-        <v>4</v>
+      <c r="Z72" s="3">
+        <v>-3000</v>
       </c>
       <c r="AA72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5319,8 +5496,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5396,8 +5576,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5473,34 +5656,37 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E76" s="3">
         <v>-500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>400</v>
       </c>
-      <c r="I76" s="3">
-        <v>0</v>
-      </c>
       <c r="J76" s="3">
         <v>0</v>
       </c>
       <c r="K76" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="L76" s="3">
         <v>-300</v>
@@ -5509,34 +5695,34 @@
         <v>-300</v>
       </c>
       <c r="N76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O76" s="3">
         <v>-200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>-100</v>
       </c>
       <c r="R76" s="3">
         <v>-100</v>
       </c>
       <c r="S76" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="T76" s="3">
         <v>100</v>
       </c>
       <c r="U76" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V76" s="3">
         <v>200</v>
       </c>
       <c r="W76" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X76" s="3">
         <v>100</v>
@@ -5544,14 +5730,17 @@
       <c r="Y76" s="3">
         <v>100</v>
       </c>
-      <c r="Z76" s="3" t="s">
-        <v>4</v>
+      <c r="Z76" s="3">
+        <v>100</v>
       </c>
       <c r="AA76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5627,156 +5816,162 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42551</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-600</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-400</v>
       </c>
       <c r="L81" s="3">
         <v>-400</v>
       </c>
       <c r="M81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-400</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
       <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-400</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
       <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>-300</v>
       </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
       <c r="T81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U81" s="3">
         <v>-100</v>
       </c>
       <c r="V81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W81" s="3">
+        <v>0</v>
+      </c>
+      <c r="X81" s="3">
         <v>-100</v>
       </c>
-      <c r="X81" s="3">
-        <v>0</v>
-      </c>
       <c r="Y81" s="3">
         <v>0</v>
       </c>
@@ -5786,8 +5981,11 @@
       <c r="AA81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5815,8 +6013,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5892,8 +6091,11 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5969,8 +6171,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6046,8 +6251,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6123,8 +6331,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6200,8 +6411,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6277,16 +6491,19 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-100</v>
       </c>
       <c r="F89" s="3">
         <v>-100</v>
@@ -6310,34 +6527,34 @@
         <v>-100</v>
       </c>
       <c r="M89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N89" s="3">
         <v>0</v>
       </c>
       <c r="O89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P89" s="3">
         <v>-100</v>
       </c>
       <c r="Q89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>-200</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
       <c r="T89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U89" s="3">
         <v>-100</v>
       </c>
       <c r="V89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W89" s="3">
         <v>0</v>
@@ -6354,8 +6571,11 @@
       <c r="AA89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6383,8 +6603,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6460,8 +6681,11 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6537,8 +6761,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6614,8 +6841,11 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6626,11 +6856,11 @@
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
@@ -6649,8 +6879,8 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>4</v>
+      <c r="N94" s="3">
+        <v>0</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>4</v>
@@ -6661,12 +6891,12 @@
       <c r="Q94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R94" s="3">
+      <c r="R94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S94" s="3">
         <v>100</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
         <v>0</v>
       </c>
@@ -6674,25 +6904,28 @@
         <v>0</v>
       </c>
       <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
         <v>100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>300</v>
       </c>
-      <c r="X94" s="3">
-        <v>0</v>
-      </c>
       <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
         <v>-300</v>
       </c>
-      <c r="Z94" s="3">
-        <v>0</v>
-      </c>
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6720,8 +6953,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6797,8 +7031,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6874,8 +7111,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6951,8 +7191,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7028,8 +7271,11 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7037,32 +7283,32 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F100" s="3">
         <v>100</v>
       </c>
       <c r="G100" s="3">
+        <v>100</v>
+      </c>
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
@@ -7070,43 +7316,46 @@
         <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>200</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>100</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U100" s="3">
         <v>100</v>
       </c>
       <c r="V100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>-200</v>
       </c>
-      <c r="X100" s="3">
-        <v>0</v>
-      </c>
       <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
         <v>300</v>
       </c>
-      <c r="Z100" s="3">
-        <v>0</v>
-      </c>
       <c r="AA100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7182,32 +7431,35 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>100</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
@@ -7257,6 +7509,9 @@
         <v>0</v>
       </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BEGI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BEGI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="92">
   <si>
     <t>BEGI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,120 +665,127 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42551</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -857,8 +864,14 @@
       <c r="AB8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -895,8 +908,8 @@
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O9" s="3">
-        <v>0</v>
+      <c r="O9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>4</v>
@@ -907,20 +920,20 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>4</v>
+      <c r="S9" s="3">
+        <v>0</v>
       </c>
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U9" s="3">
-        <v>0</v>
+      <c r="U9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W9" s="3" t="s">
-        <v>4</v>
+      <c r="W9" s="3">
+        <v>0</v>
       </c>
       <c r="X9" s="3" t="s">
         <v>4</v>
@@ -937,8 +950,14 @@
       <c r="AB9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -975,8 +994,8 @@
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O10" s="3">
-        <v>0</v>
+      <c r="O10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>4</v>
@@ -987,20 +1006,20 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>4</v>
+      <c r="S10" s="3">
+        <v>0</v>
       </c>
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U10" s="3">
-        <v>0</v>
+      <c r="U10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W10" s="3" t="s">
-        <v>4</v>
+      <c r="W10" s="3">
+        <v>0</v>
       </c>
       <c r="X10" s="3" t="s">
         <v>4</v>
@@ -1017,8 +1036,14 @@
       <c r="AB10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1047,8 +1072,10 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1127,8 +1154,14 @@
       <c r="AB12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1207,52 +1240,58 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3">
         <v>-200</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>100</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>300</v>
-      </c>
-      <c r="M14" s="3">
-        <v>300</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
       </c>
       <c r="O14" s="3">
         <v>300</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>300</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>4</v>
@@ -1266,11 +1305,11 @@
       <c r="U14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-      <c r="W14" s="3">
-        <v>0</v>
+      <c r="V14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X14" s="3">
         <v>0</v>
@@ -1287,8 +1326,14 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1364,11 +1409,17 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-      <c r="AB15" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1394,8 +1445,10 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1403,65 +1456,65 @@
         <v>100</v>
       </c>
       <c r="E17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F17" s="3">
         <v>100</v>
       </c>
       <c r="G17" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H17" s="3">
+        <v>100</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
         <v>400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>500</v>
       </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+      <c r="S17" s="3">
         <v>100</v>
       </c>
-      <c r="R17" s="3">
-        <v>0</v>
-      </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
+        <v>0</v>
+      </c>
+      <c r="U17" s="3">
         <v>200</v>
       </c>
-      <c r="T17" s="3">
-        <v>0</v>
-      </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
+        <v>0</v>
+      </c>
+      <c r="W17" s="3">
         <v>100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>100</v>
       </c>
-      <c r="W17" s="3">
-        <v>0</v>
-      </c>
-      <c r="X17" s="3">
-        <v>0</v>
-      </c>
       <c r="Y17" s="3">
         <v>0</v>
       </c>
@@ -1474,8 +1527,14 @@
       <c r="AB17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1483,65 +1542,65 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F18" s="3">
         <v>-100</v>
       </c>
       <c r="G18" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="H18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>-400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-500</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
         <v>-100</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
         <v>-200</v>
       </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+      <c r="W18" s="3">
         <v>-100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-100</v>
       </c>
-      <c r="W18" s="3">
-        <v>0</v>
-      </c>
-      <c r="X18" s="3">
-        <v>0</v>
-      </c>
       <c r="Y18" s="3">
         <v>0</v>
       </c>
@@ -1554,8 +1613,14 @@
       <c r="AB18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1584,8 +1649,10 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1623,26 +1690,26 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-300</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>-100</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
         <v>0</v>
       </c>
@@ -1650,33 +1717,39 @@
         <v>0</v>
       </c>
       <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
         <v>-100</v>
       </c>
-      <c r="Y20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="3">
-        <v>0</v>
-      </c>
       <c r="AA20" s="3">
         <v>0</v>
       </c>
       <c r="AB20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
+      <c r="E21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-100</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>4</v>
@@ -1690,23 +1763,23 @@
       <c r="J21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3">
         <v>-500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-300</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-400</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-100</v>
       </c>
       <c r="O21" s="3">
         <v>-400</v>
       </c>
       <c r="P21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q21" s="3">
         <v>-400</v>
@@ -1715,19 +1788,19 @@
         <v>0</v>
       </c>
       <c r="S21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T21" s="3">
+        <v>0</v>
+      </c>
+      <c r="U21" s="3">
         <v>-300</v>
       </c>
-      <c r="T21" s="3">
-        <v>0</v>
-      </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
+        <v>0</v>
+      </c>
+      <c r="W21" s="3">
         <v>-100</v>
-      </c>
-      <c r="V21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="W21" s="3">
-        <v>0</v>
       </c>
       <c r="X21" s="3">
         <v>-100</v>
@@ -1736,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="Z21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AA21" s="3">
         <v>0</v>
@@ -1744,52 +1817,58 @@
       <c r="AB21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
         <v>100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
+        <v>100</v>
+      </c>
+      <c r="G22" s="3">
         <v>200</v>
-      </c>
-      <c r="F22" s="3">
-        <v>400</v>
-      </c>
-      <c r="G22" s="3">
-        <v>400</v>
       </c>
       <c r="H22" s="3">
         <v>400</v>
       </c>
       <c r="I22" s="3">
+        <v>400</v>
+      </c>
+      <c r="J22" s="3">
+        <v>400</v>
+      </c>
+      <c r="K22" s="3">
         <v>300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>100</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
       <c r="O22" s="3">
         <v>0</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>4</v>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>4</v>
@@ -1806,11 +1885,11 @@
       <c r="V22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W22" s="3">
-        <v>0</v>
-      </c>
-      <c r="X22" s="3">
-        <v>0</v>
+      <c r="W22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y22" s="3">
         <v>0</v>
@@ -1824,49 +1903,55 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="3">
         <v>-200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G23" s="3">
         <v>-300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-400</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-400</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-100</v>
       </c>
       <c r="O23" s="3">
         <v>-400</v>
       </c>
       <c r="P23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q23" s="3">
         <v>-400</v>
@@ -1875,19 +1960,19 @@
         <v>0</v>
       </c>
       <c r="S23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3">
         <v>-300</v>
       </c>
-      <c r="T23" s="3">
-        <v>0</v>
-      </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
+        <v>0</v>
+      </c>
+      <c r="W23" s="3">
         <v>-100</v>
-      </c>
-      <c r="V23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="W23" s="3">
-        <v>0</v>
       </c>
       <c r="X23" s="3">
         <v>-100</v>
@@ -1896,7 +1981,7 @@
         <v>0</v>
       </c>
       <c r="Z23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AA23" s="3">
         <v>0</v>
@@ -1904,8 +1989,14 @@
       <c r="AB23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1984,8 +2075,14 @@
       <c r="AB24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2064,49 +2161,55 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
         <v>-200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G26" s="3">
         <v>-300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-400</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-400</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-100</v>
       </c>
       <c r="O26" s="3">
         <v>-400</v>
       </c>
       <c r="P26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q26" s="3">
         <v>-400</v>
@@ -2115,19 +2218,19 @@
         <v>0</v>
       </c>
       <c r="S26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
         <v>-300</v>
       </c>
-      <c r="T26" s="3">
-        <v>0</v>
-      </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
+        <v>0</v>
+      </c>
+      <c r="W26" s="3">
         <v>-100</v>
-      </c>
-      <c r="V26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="W26" s="3">
-        <v>0</v>
       </c>
       <c r="X26" s="3">
         <v>-100</v>
@@ -2136,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="Z26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AA26" s="3">
         <v>0</v>
@@ -2144,49 +2247,55 @@
       <c r="AB26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
         <v>-200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G27" s="3">
         <v>-300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-400</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-400</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-100</v>
       </c>
       <c r="O27" s="3">
         <v>-400</v>
       </c>
       <c r="P27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q27" s="3">
         <v>-400</v>
@@ -2195,19 +2304,19 @@
         <v>0</v>
       </c>
       <c r="S27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
         <v>-300</v>
       </c>
-      <c r="T27" s="3">
-        <v>0</v>
-      </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
+        <v>0</v>
+      </c>
+      <c r="W27" s="3">
         <v>-100</v>
-      </c>
-      <c r="V27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="W27" s="3">
-        <v>0</v>
       </c>
       <c r="X27" s="3">
         <v>-100</v>
@@ -2216,7 +2325,7 @@
         <v>0</v>
       </c>
       <c r="Z27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AA27" s="3">
         <v>0</v>
@@ -2224,8 +2333,14 @@
       <c r="AB27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2304,8 +2419,14 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2384,8 +2505,14 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2464,8 +2591,14 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2544,8 +2677,14 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2583,26 +2722,26 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>300</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>100</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
         <v>0</v>
       </c>
@@ -2610,63 +2749,69 @@
         <v>0</v>
       </c>
       <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
         <v>100</v>
       </c>
-      <c r="Y32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="3">
-        <v>0</v>
-      </c>
       <c r="AA32" s="3">
         <v>0</v>
       </c>
       <c r="AB32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
         <v>-200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G33" s="3">
         <v>-300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-400</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-400</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-100</v>
       </c>
       <c r="O33" s="3">
         <v>-400</v>
       </c>
       <c r="P33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q33" s="3">
         <v>-400</v>
@@ -2675,19 +2820,19 @@
         <v>0</v>
       </c>
       <c r="S33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
         <v>-300</v>
       </c>
-      <c r="T33" s="3">
-        <v>0</v>
-      </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
+        <v>0</v>
+      </c>
+      <c r="W33" s="3">
         <v>-100</v>
-      </c>
-      <c r="V33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="W33" s="3">
-        <v>0</v>
       </c>
       <c r="X33" s="3">
         <v>-100</v>
@@ -2696,7 +2841,7 @@
         <v>0</v>
       </c>
       <c r="Z33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AA33" s="3">
         <v>0</v>
@@ -2704,8 +2849,14 @@
       <c r="AB33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2784,49 +2935,55 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3">
         <v>-200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G35" s="3">
         <v>-300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-400</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-400</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-100</v>
       </c>
       <c r="O35" s="3">
         <v>-400</v>
       </c>
       <c r="P35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q35" s="3">
         <v>-400</v>
@@ -2835,19 +2992,19 @@
         <v>0</v>
       </c>
       <c r="S35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
         <v>-300</v>
       </c>
-      <c r="T35" s="3">
-        <v>0</v>
-      </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
+        <v>0</v>
+      </c>
+      <c r="W35" s="3">
         <v>-100</v>
-      </c>
-      <c r="V35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="W35" s="3">
-        <v>0</v>
       </c>
       <c r="X35" s="3">
         <v>-100</v>
@@ -2856,7 +3013,7 @@
         <v>0</v>
       </c>
       <c r="Z35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AA35" s="3">
         <v>0</v>
@@ -2864,93 +3021,105 @@
       <c r="AB35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42551</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2979,8 +3148,10 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3009,38 +3180,40 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
         <v>100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
+        <v>100</v>
+      </c>
+      <c r="G41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>400</v>
-      </c>
-      <c r="G41" s="3">
-        <v>500</v>
-      </c>
-      <c r="H41" s="3">
-        <v>600</v>
       </c>
       <c r="I41" s="3">
         <v>500</v>
       </c>
       <c r="J41" s="3">
+        <v>600</v>
+      </c>
+      <c r="K41" s="3">
+        <v>500</v>
+      </c>
+      <c r="L41" s="3">
         <v>100</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
       <c r="M41" s="3">
         <v>0</v>
       </c>
@@ -3083,14 +3256,20 @@
       <c r="Z41" s="3">
         <v>0</v>
       </c>
-      <c r="AA41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB41" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3169,8 +3348,14 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3231,26 +3416,32 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-      <c r="W43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y43" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z43" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3329,8 +3520,14 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3356,14 +3553,14 @@
         <v>0</v>
       </c>
       <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
         <v>100</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
       <c r="N45" s="3">
         <v>0</v>
       </c>
@@ -3376,11 +3573,11 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S45" s="3" t="s">
-        <v>4</v>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
       </c>
       <c r="T45" s="3" t="s">
         <v>4</v>
@@ -3391,11 +3588,11 @@
       <c r="V45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W45" s="3">
-        <v>0</v>
-      </c>
-      <c r="X45" s="3">
-        <v>0</v>
+      <c r="W45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y45" s="3">
         <v>0</v>
@@ -3409,41 +3606,47 @@
       <c r="AB45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>0</v>
+      </c>
+      <c r="E46" s="3">
         <v>100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
+        <v>100</v>
+      </c>
+      <c r="G46" s="3">
         <v>200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>400</v>
-      </c>
-      <c r="G46" s="3">
-        <v>500</v>
-      </c>
-      <c r="H46" s="3">
-        <v>600</v>
       </c>
       <c r="I46" s="3">
         <v>500</v>
       </c>
       <c r="J46" s="3">
+        <v>600</v>
+      </c>
+      <c r="K46" s="3">
+        <v>500</v>
+      </c>
+      <c r="L46" s="3">
         <v>200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>100</v>
       </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
-      <c r="M46" s="3">
-        <v>0</v>
-      </c>
       <c r="N46" s="3">
         <v>0</v>
       </c>
@@ -3483,14 +3686,20 @@
       <c r="Z46" s="3">
         <v>0</v>
       </c>
-      <c r="AA46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB46" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3543,10 +3752,10 @@
         <v>0</v>
       </c>
       <c r="T47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V47" s="3">
         <v>100</v>
@@ -3558,19 +3767,25 @@
         <v>100</v>
       </c>
       <c r="Y47" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z47" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA47" s="3">
         <v>500</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AB47" s="3">
         <v>500</v>
       </c>
-      <c r="AA47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB47" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3586,18 +3801,18 @@
       <c r="G48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H48" s="3">
+      <c r="H48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J48" s="3">
         <v>100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>100</v>
       </c>
-      <c r="J48" s="3">
-        <v>0</v>
-      </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
       <c r="L48" s="3">
         <v>0</v>
       </c>
@@ -3643,14 +3858,20 @@
       <c r="Z48" s="3">
         <v>0</v>
       </c>
-      <c r="AA48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB48" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3666,11 +3887,11 @@
       <c r="G49" s="3">
         <v>200</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>4</v>
+      <c r="H49" s="3">
+        <v>200</v>
+      </c>
+      <c r="I49" s="3">
+        <v>200</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>4</v>
@@ -3684,11 +3905,11 @@
       <c r="M49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
-      </c>
-      <c r="O49" s="3">
-        <v>0</v>
+      <c r="N49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P49" s="3">
         <v>0</v>
@@ -3729,8 +3950,14 @@
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3809,8 +4036,14 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3889,8 +4122,14 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3969,8 +4208,14 @@
       <c r="AB52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4049,8 +4294,14 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -4058,32 +4309,32 @@
         <v>300</v>
       </c>
       <c r="E54" s="3">
+        <v>300</v>
+      </c>
+      <c r="F54" s="3">
+        <v>300</v>
+      </c>
+      <c r="G54" s="3">
         <v>400</v>
-      </c>
-      <c r="F54" s="3">
-        <v>600</v>
-      </c>
-      <c r="G54" s="3">
-        <v>700</v>
       </c>
       <c r="H54" s="3">
         <v>600</v>
       </c>
       <c r="I54" s="3">
+        <v>700</v>
+      </c>
+      <c r="J54" s="3">
         <v>600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
+        <v>600</v>
+      </c>
+      <c r="L54" s="3">
         <v>200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>100</v>
       </c>
-      <c r="L54" s="3">
-        <v>0</v>
-      </c>
-      <c r="M54" s="3">
-        <v>0</v>
-      </c>
       <c r="N54" s="3">
         <v>0</v>
       </c>
@@ -4103,34 +4354,40 @@
         <v>0</v>
       </c>
       <c r="T54" s="3">
+        <v>0</v>
+      </c>
+      <c r="U54" s="3">
+        <v>0</v>
+      </c>
+      <c r="V54" s="3">
         <v>100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>500</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>500</v>
       </c>
-      <c r="AA54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB54" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4159,8 +4416,10 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4189,8 +4448,10 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4198,10 +4459,10 @@
         <v>100</v>
       </c>
       <c r="E57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G57" s="3">
         <v>0</v>
@@ -4219,10 +4480,10 @@
         <v>0</v>
       </c>
       <c r="L57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N57" s="3">
         <v>100</v>
@@ -4237,10 +4498,10 @@
         <v>100</v>
       </c>
       <c r="R57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T57" s="3">
         <v>0</v>
@@ -4263,14 +4524,20 @@
       <c r="Z57" s="3">
         <v>0</v>
       </c>
-      <c r="AA57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB57" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4284,25 +4551,25 @@
         <v>800</v>
       </c>
       <c r="G58" s="3">
+        <v>800</v>
+      </c>
+      <c r="H58" s="3">
+        <v>800</v>
+      </c>
+      <c r="I58" s="3">
         <v>700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>100</v>
-      </c>
-      <c r="L58" s="3">
-        <v>200</v>
-      </c>
-      <c r="M58" s="3">
-        <v>200</v>
       </c>
       <c r="N58" s="3">
         <v>200</v>
@@ -4317,17 +4584,17 @@
         <v>200</v>
       </c>
       <c r="R58" s="3">
+        <v>200</v>
+      </c>
+      <c r="S58" s="3">
+        <v>200</v>
+      </c>
+      <c r="T58" s="3">
         <v>100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>100</v>
       </c>
-      <c r="T58" s="3">
-        <v>0</v>
-      </c>
-      <c r="U58" s="3">
-        <v>0</v>
-      </c>
       <c r="V58" s="3">
         <v>0</v>
       </c>
@@ -4338,27 +4605,33 @@
         <v>0</v>
       </c>
       <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="3">
         <v>400</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>400</v>
       </c>
-      <c r="AA58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB58" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
-        <v>100</v>
+      <c r="D59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F59" s="3">
         <v>100</v>
@@ -4370,10 +4643,10 @@
         <v>100</v>
       </c>
       <c r="I59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
@@ -4385,14 +4658,14 @@
         <v>0</v>
       </c>
       <c r="N59" s="3">
+        <v>0</v>
+      </c>
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+      <c r="P59" s="3">
         <v>100</v>
       </c>
-      <c r="O59" s="3">
-        <v>0</v>
-      </c>
-      <c r="P59" s="3">
-        <v>0</v>
-      </c>
       <c r="Q59" s="3">
         <v>0</v>
       </c>
@@ -4402,20 +4675,20 @@
       <c r="S59" s="3">
         <v>0</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U59" s="3" t="s">
-        <v>4</v>
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+      <c r="U59" s="3">
+        <v>0</v>
       </c>
       <c r="V59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W59" s="3">
-        <v>0</v>
-      </c>
-      <c r="X59" s="3">
-        <v>0</v>
+      <c r="W59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y59" s="3">
         <v>0</v>
@@ -4429,40 +4702,46 @@
       <c r="AB59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E60" s="3">
         <v>1000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G60" s="3">
         <v>900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>100</v>
-      </c>
-      <c r="L60" s="3">
-        <v>300</v>
-      </c>
-      <c r="M60" s="3">
-        <v>300</v>
       </c>
       <c r="N60" s="3">
         <v>300</v>
@@ -4477,17 +4756,17 @@
         <v>300</v>
       </c>
       <c r="R60" s="3">
+        <v>300</v>
+      </c>
+      <c r="S60" s="3">
+        <v>300</v>
+      </c>
+      <c r="T60" s="3">
         <v>100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>100</v>
       </c>
-      <c r="T60" s="3">
-        <v>0</v>
-      </c>
-      <c r="U60" s="3">
-        <v>0</v>
-      </c>
       <c r="V60" s="3">
         <v>0</v>
       </c>
@@ -4498,19 +4777,25 @@
         <v>0</v>
       </c>
       <c r="Y60" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA60" s="3">
         <v>400</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>400</v>
       </c>
-      <c r="AA60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB60" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4589,8 +4874,14 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4669,8 +4960,14 @@
       <c r="AB62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4749,8 +5046,14 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4829,8 +5132,14 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4909,40 +5218,46 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E66" s="3">
         <v>1000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G66" s="3">
         <v>900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>100</v>
-      </c>
-      <c r="L66" s="3">
-        <v>300</v>
-      </c>
-      <c r="M66" s="3">
-        <v>300</v>
       </c>
       <c r="N66" s="3">
         <v>300</v>
@@ -4957,17 +5272,17 @@
         <v>300</v>
       </c>
       <c r="R66" s="3">
+        <v>300</v>
+      </c>
+      <c r="S66" s="3">
+        <v>300</v>
+      </c>
+      <c r="T66" s="3">
         <v>100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>100</v>
       </c>
-      <c r="T66" s="3">
-        <v>0</v>
-      </c>
-      <c r="U66" s="3">
-        <v>0</v>
-      </c>
       <c r="V66" s="3">
         <v>0</v>
       </c>
@@ -4978,19 +5293,25 @@
         <v>0</v>
       </c>
       <c r="Y66" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z66" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA66" s="3">
         <v>400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>400</v>
       </c>
-      <c r="AA66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB66" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5019,8 +5340,10 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5099,8 +5422,14 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5179,8 +5508,14 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5259,8 +5594,14 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5339,88 +5680,100 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-9200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-9000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-8700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-8100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-7800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-7000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-6300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-6000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-5300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-4900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-4500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-4400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-4000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-3500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-3500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-3300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-3200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-3200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-3100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-3100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-3000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>-3000</v>
       </c>
-      <c r="AA72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB72" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5499,8 +5852,14 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5579,8 +5938,14 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5659,46 +6024,52 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F76" s="3">
         <v>-600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>400</v>
       </c>
-      <c r="J76" s="3">
-        <v>0</v>
-      </c>
-      <c r="K76" s="3">
-        <v>0</v>
-      </c>
       <c r="L76" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="M76" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="N76" s="3">
         <v>-300</v>
       </c>
       <c r="O76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="P76" s="3">
         <v>-300</v>
@@ -5707,40 +6078,46 @@
         <v>-200</v>
       </c>
       <c r="R76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T76" s="3">
         <v>-100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>200</v>
-      </c>
-      <c r="X76" s="3">
-        <v>100</v>
-      </c>
-      <c r="Y76" s="3">
-        <v>100</v>
       </c>
       <c r="Z76" s="3">
         <v>100</v>
       </c>
-      <c r="AA76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB76" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AA76" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB76" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5819,134 +6196,146 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42551</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3">
         <v>-200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G81" s="3">
         <v>-300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-400</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-400</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-100</v>
       </c>
       <c r="O81" s="3">
         <v>-400</v>
       </c>
       <c r="P81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q81" s="3">
         <v>-400</v>
@@ -5955,19 +6344,19 @@
         <v>0</v>
       </c>
       <c r="S81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3">
         <v>-300</v>
       </c>
-      <c r="T81" s="3">
-        <v>0</v>
-      </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
+        <v>0</v>
+      </c>
+      <c r="W81" s="3">
         <v>-100</v>
-      </c>
-      <c r="V81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="W81" s="3">
-        <v>0</v>
       </c>
       <c r="X81" s="3">
         <v>-100</v>
@@ -5976,7 +6365,7 @@
         <v>0</v>
       </c>
       <c r="Z81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AA81" s="3">
         <v>0</v>
@@ -5984,8 +6373,14 @@
       <c r="AB81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6014,8 +6409,10 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6094,8 +6491,14 @@
       <c r="AB83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6174,8 +6577,14 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6254,8 +6663,14 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6334,8 +6749,14 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6414,8 +6835,14 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6494,8 +6921,14 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6503,13 +6936,13 @@
         <v>-100</v>
       </c>
       <c r="E89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F89" s="3">
         <v>-100</v>
       </c>
       <c r="G89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="H89" s="3">
         <v>-100</v>
@@ -6530,38 +6963,38 @@
         <v>-100</v>
       </c>
       <c r="N89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
         <v>-200</v>
       </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
         <v>-100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-100</v>
       </c>
-      <c r="W89" s="3">
-        <v>0</v>
-      </c>
-      <c r="X89" s="3">
-        <v>0</v>
-      </c>
       <c r="Y89" s="3">
         <v>0</v>
       </c>
@@ -6574,8 +7007,14 @@
       <c r="AB89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6604,8 +7043,10 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6625,7 +7066,7 @@
         <v>0</v>
       </c>
       <c r="I91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
@@ -6684,8 +7125,14 @@
       <c r="AB91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6764,8 +7211,14 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6844,8 +7297,14 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6859,14 +7318,14 @@
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
@@ -6882,11 +7341,11 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P94" s="3" t="s">
-        <v>4</v>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>4</v>
@@ -6894,38 +7353,44 @@
       <c r="R94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S94" s="3">
+      <c r="S94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U94" s="3">
         <v>100</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
       <c r="V94" s="3">
         <v>0</v>
       </c>
       <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
         <v>100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>300</v>
       </c>
-      <c r="Y94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB94" s="3">
         <v>-300</v>
       </c>
-      <c r="AA94" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6954,8 +7419,10 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7034,8 +7501,14 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7114,8 +7587,14 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7194,8 +7673,14 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7274,37 +7759,43 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>100</v>
-      </c>
-      <c r="H100" s="3">
-        <v>200</v>
-      </c>
-      <c r="I100" s="3">
-        <v>500</v>
       </c>
       <c r="J100" s="3">
         <v>200</v>
       </c>
       <c r="K100" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="L100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M100" s="3">
         <v>100</v>
@@ -7313,19 +7804,19 @@
         <v>0</v>
       </c>
       <c r="O100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>200</v>
-      </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
-      <c r="S100" s="3">
-        <v>100</v>
       </c>
       <c r="T100" s="3">
         <v>0</v>
@@ -7334,28 +7825,34 @@
         <v>100</v>
       </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>100</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
       <c r="X100" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
         <v>-200</v>
       </c>
-      <c r="Y100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB100" s="3">
         <v>300</v>
       </c>
-      <c r="AA100" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7434,37 +7931,43 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E102" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="F102" s="3">
         <v>-100</v>
       </c>
       <c r="G102" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="H102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="I102" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="J102" s="3">
         <v>100</v>
       </c>
       <c r="K102" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="L102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M102" s="3">
         <v>0</v>
@@ -7512,6 +8015,12 @@
         <v>0</v>
       </c>
       <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BEGI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BEGI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="92">
   <si>
     <t>BEGI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,127 +665,131 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42551</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -870,8 +874,11 @@
       <c r="AD8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -914,17 +921,17 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q9" s="3">
-        <v>0</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S9" s="3">
-        <v>0</v>
-      </c>
-      <c r="T9" s="3" t="s">
-        <v>4</v>
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R9" s="3">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T9" s="3">
+        <v>0</v>
       </c>
       <c r="U9" s="3" t="s">
         <v>4</v>
@@ -932,11 +939,11 @@
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W9" s="3">
-        <v>0</v>
-      </c>
-      <c r="X9" s="3" t="s">
-        <v>4</v>
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X9" s="3">
+        <v>0</v>
       </c>
       <c r="Y9" s="3" t="s">
         <v>4</v>
@@ -956,8 +963,11 @@
       <c r="AD9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1000,17 +1010,17 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q10" s="3">
-        <v>0</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S10" s="3">
-        <v>0</v>
-      </c>
-      <c r="T10" s="3" t="s">
-        <v>4</v>
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" s="3">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T10" s="3">
+        <v>0</v>
       </c>
       <c r="U10" s="3" t="s">
         <v>4</v>
@@ -1018,11 +1028,11 @@
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W10" s="3">
-        <v>0</v>
-      </c>
-      <c r="X10" s="3" t="s">
-        <v>4</v>
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X10" s="3">
+        <v>0</v>
       </c>
       <c r="Y10" s="3" t="s">
         <v>4</v>
@@ -1042,8 +1052,11 @@
       <c r="AD10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1074,8 +1087,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1160,8 +1174,11 @@
       <c r="AD12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1246,8 +1263,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1257,45 +1277,45 @@
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3">
         <v>-200</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>100</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>400</v>
-      </c>
-      <c r="N14" s="3">
-        <v>300</v>
       </c>
       <c r="O14" s="3">
         <v>300</v>
       </c>
       <c r="P14" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>300</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1311,8 +1331,8 @@
       <c r="W14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
+      <c r="X14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y14" s="3">
         <v>0</v>
@@ -1332,8 +1352,11 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1415,11 +1438,14 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-      <c r="AD15" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1447,8 +1473,9 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1462,61 +1489,61 @@
         <v>100</v>
       </c>
       <c r="G17" s="3">
+        <v>100</v>
+      </c>
+      <c r="H17" s="3">
         <v>200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>100</v>
       </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
       <c r="J17" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="K17" s="3">
         <v>400</v>
       </c>
       <c r="L17" s="3">
+        <v>400</v>
+      </c>
+      <c r="M17" s="3">
         <v>200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>500</v>
       </c>
-      <c r="R17" s="3">
-        <v>0</v>
-      </c>
       <c r="S17" s="3">
+        <v>0</v>
+      </c>
+      <c r="T17" s="3">
         <v>100</v>
       </c>
-      <c r="T17" s="3">
-        <v>0</v>
-      </c>
       <c r="U17" s="3">
+        <v>0</v>
+      </c>
+      <c r="V17" s="3">
         <v>200</v>
       </c>
-      <c r="V17" s="3">
-        <v>0</v>
-      </c>
       <c r="W17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X17" s="3">
         <v>100</v>
       </c>
       <c r="Y17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z17" s="3">
         <v>0</v>
@@ -1533,8 +1560,11 @@
       <c r="AD17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1548,61 +1578,61 @@
         <v>-100</v>
       </c>
       <c r="G18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H18" s="3">
         <v>-200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
       <c r="J18" s="3">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="K18" s="3">
         <v>-400</v>
       </c>
       <c r="L18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-500</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
       <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
         <v>-100</v>
       </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
       <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
         <v>-200</v>
       </c>
-      <c r="V18" s="3">
-        <v>0</v>
-      </c>
       <c r="W18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X18" s="3">
         <v>-100</v>
       </c>
       <c r="Y18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z18" s="3">
         <v>0</v>
@@ -1619,8 +1649,11 @@
       <c r="AD18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1651,8 +1684,9 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1696,23 +1730,23 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>100</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>-300</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>-100</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
         <v>0</v>
       </c>
@@ -1723,11 +1757,11 @@
         <v>0</v>
       </c>
       <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
         <v>-100</v>
       </c>
-      <c r="AA20" s="3">
-        <v>0</v>
-      </c>
       <c r="AB20" s="3">
         <v>0</v>
       </c>
@@ -1737,8 +1771,11 @@
       <c r="AD20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1751,8 +1788,8 @@
       <c r="F21" s="3">
         <v>-100</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
+      <c r="G21" s="3">
+        <v>-100</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>4</v>
@@ -1769,51 +1806,51 @@
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" s="3">
         <v>-500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-400</v>
       </c>
-      <c r="R21" s="3">
-        <v>0</v>
-      </c>
       <c r="S21" s="3">
+        <v>0</v>
+      </c>
+      <c r="T21" s="3">
         <v>-400</v>
       </c>
-      <c r="T21" s="3">
-        <v>0</v>
-      </c>
       <c r="U21" s="3">
+        <v>0</v>
+      </c>
+      <c r="V21" s="3">
         <v>-300</v>
       </c>
-      <c r="V21" s="3">
-        <v>0</v>
-      </c>
       <c r="W21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X21" s="3">
         <v>-100</v>
       </c>
       <c r="Y21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="3">
         <v>-100</v>
       </c>
-      <c r="AA21" s="3">
-        <v>0</v>
-      </c>
       <c r="AB21" s="3">
         <v>0</v>
       </c>
@@ -1823,8 +1860,11 @@
       <c r="AD21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1832,16 +1872,16 @@
         <v>0</v>
       </c>
       <c r="E22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F22" s="3">
         <v>100</v>
       </c>
       <c r="G22" s="3">
+        <v>100</v>
+      </c>
+      <c r="H22" s="3">
         <v>200</v>
-      </c>
-      <c r="H22" s="3">
-        <v>400</v>
       </c>
       <c r="I22" s="3">
         <v>400</v>
@@ -1850,19 +1890,19 @@
         <v>400</v>
       </c>
       <c r="K22" s="3">
+        <v>400</v>
+      </c>
+      <c r="L22" s="3">
         <v>300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>200</v>
-      </c>
-      <c r="M22" s="3">
-        <v>100</v>
       </c>
       <c r="N22" s="3">
         <v>100</v>
       </c>
       <c r="O22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1870,8 +1910,8 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>4</v>
+      <c r="R22" s="3">
+        <v>0</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>4</v>
@@ -1891,8 +1931,8 @@
       <c r="X22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y22" s="3">
-        <v>0</v>
+      <c r="Y22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z22" s="3">
         <v>0</v>
@@ -1909,83 +1949,86 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>4</v>
+      <c r="D23" s="3">
+        <v>-100</v>
       </c>
       <c r="E23" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F23" s="3">
         <v>-200</v>
       </c>
       <c r="G23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H23" s="3">
         <v>-300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-600</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-400</v>
       </c>
       <c r="O23" s="3">
         <v>-400</v>
       </c>
       <c r="P23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-400</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
       <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
         <v>-400</v>
       </c>
-      <c r="T23" s="3">
-        <v>0</v>
-      </c>
       <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
         <v>-300</v>
       </c>
-      <c r="V23" s="3">
-        <v>0</v>
-      </c>
       <c r="W23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X23" s="3">
         <v>-100</v>
       </c>
       <c r="Y23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="3">
         <v>-100</v>
       </c>
-      <c r="AA23" s="3">
-        <v>0</v>
-      </c>
       <c r="AB23" s="3">
         <v>0</v>
       </c>
@@ -1995,8 +2038,11 @@
       <c r="AD23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2081,8 +2127,11 @@
       <c r="AD24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2167,83 +2216,86 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>-100</v>
       </c>
       <c r="E26" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F26" s="3">
         <v>-200</v>
       </c>
       <c r="G26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H26" s="3">
         <v>-300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-600</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-400</v>
       </c>
       <c r="O26" s="3">
         <v>-400</v>
       </c>
       <c r="P26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-400</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
       <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
         <v>-400</v>
       </c>
-      <c r="T26" s="3">
-        <v>0</v>
-      </c>
       <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
         <v>-300</v>
       </c>
-      <c r="V26" s="3">
-        <v>0</v>
-      </c>
       <c r="W26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X26" s="3">
         <v>-100</v>
       </c>
       <c r="Y26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="3">
         <v>-100</v>
       </c>
-      <c r="AA26" s="3">
-        <v>0</v>
-      </c>
       <c r="AB26" s="3">
         <v>0</v>
       </c>
@@ -2253,83 +2305,86 @@
       <c r="AD26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>-100</v>
       </c>
       <c r="E27" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F27" s="3">
         <v>-200</v>
       </c>
       <c r="G27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H27" s="3">
         <v>-300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-600</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-400</v>
       </c>
       <c r="O27" s="3">
         <v>-400</v>
       </c>
       <c r="P27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-400</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
       <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
         <v>-400</v>
       </c>
-      <c r="T27" s="3">
-        <v>0</v>
-      </c>
       <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
         <v>-300</v>
       </c>
-      <c r="V27" s="3">
-        <v>0</v>
-      </c>
       <c r="W27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X27" s="3">
         <v>-100</v>
       </c>
       <c r="Y27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="3">
         <v>-100</v>
       </c>
-      <c r="AA27" s="3">
-        <v>0</v>
-      </c>
       <c r="AB27" s="3">
         <v>0</v>
       </c>
@@ -2339,8 +2394,11 @@
       <c r="AD27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2425,8 +2483,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2511,8 +2572,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2597,8 +2661,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2683,8 +2750,11 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2728,23 +2798,23 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>300</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>100</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
         <v>0</v>
       </c>
@@ -2755,11 +2825,11 @@
         <v>0</v>
       </c>
       <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
         <v>100</v>
       </c>
-      <c r="AA32" s="3">
-        <v>0</v>
-      </c>
       <c r="AB32" s="3">
         <v>0</v>
       </c>
@@ -2769,83 +2839,86 @@
       <c r="AD32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>-100</v>
       </c>
       <c r="E33" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F33" s="3">
         <v>-200</v>
       </c>
       <c r="G33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H33" s="3">
         <v>-300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-600</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-400</v>
       </c>
       <c r="O33" s="3">
         <v>-400</v>
       </c>
       <c r="P33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-400</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
       <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
         <v>-400</v>
       </c>
-      <c r="T33" s="3">
-        <v>0</v>
-      </c>
       <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
         <v>-300</v>
       </c>
-      <c r="V33" s="3">
-        <v>0</v>
-      </c>
       <c r="W33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X33" s="3">
         <v>-100</v>
       </c>
       <c r="Y33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="3">
         <v>-100</v>
       </c>
-      <c r="AA33" s="3">
-        <v>0</v>
-      </c>
       <c r="AB33" s="3">
         <v>0</v>
       </c>
@@ -2855,8 +2928,11 @@
       <c r="AD33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2941,83 +3017,86 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>-100</v>
       </c>
       <c r="E35" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F35" s="3">
         <v>-200</v>
       </c>
       <c r="G35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H35" s="3">
         <v>-300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-600</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-400</v>
       </c>
       <c r="O35" s="3">
         <v>-400</v>
       </c>
       <c r="P35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-400</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
       <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
         <v>-400</v>
       </c>
-      <c r="T35" s="3">
-        <v>0</v>
-      </c>
       <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
         <v>-300</v>
       </c>
-      <c r="V35" s="3">
-        <v>0</v>
-      </c>
       <c r="W35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X35" s="3">
         <v>-100</v>
       </c>
       <c r="Y35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="3">
         <v>-100</v>
       </c>
-      <c r="AA35" s="3">
-        <v>0</v>
-      </c>
       <c r="AB35" s="3">
         <v>0</v>
       </c>
@@ -3027,99 +3106,105 @@
       <c r="AD35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42551</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3150,8 +3235,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3182,8 +3268,9 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3191,32 +3278,32 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F41" s="3">
         <v>100</v>
       </c>
       <c r="G41" s="3">
+        <v>100</v>
+      </c>
+      <c r="H41" s="3">
         <v>200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>100</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
       <c r="N41" s="3">
         <v>0</v>
       </c>
@@ -3262,14 +3349,17 @@
       <c r="AB41" s="3">
         <v>0</v>
       </c>
-      <c r="AC41" s="3" t="s">
-        <v>4</v>
+      <c r="AC41" s="3">
+        <v>0</v>
       </c>
       <c r="AD41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3354,8 +3444,11 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3422,26 +3515,29 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-      <c r="Y43" s="3" t="s">
-        <v>4</v>
+      <c r="Y43" s="3">
+        <v>0</v>
       </c>
       <c r="Z43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA43" s="3">
-        <v>0</v>
+      <c r="AA43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AB43" s="3">
         <v>0</v>
       </c>
-      <c r="AC43" s="3" t="s">
-        <v>4</v>
+      <c r="AC43" s="3">
+        <v>0</v>
       </c>
       <c r="AD43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3526,8 +3622,11 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3559,11 +3658,11 @@
         <v>0</v>
       </c>
       <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
         <v>100</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
       <c r="O45" s="3">
         <v>0</v>
       </c>
@@ -3579,8 +3678,8 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>4</v>
+      <c r="T45" s="3">
+        <v>0</v>
       </c>
       <c r="U45" s="3" t="s">
         <v>4</v>
@@ -3594,8 +3693,8 @@
       <c r="X45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y45" s="3">
-        <v>0</v>
+      <c r="Y45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z45" s="3">
         <v>0</v>
@@ -3612,8 +3711,11 @@
       <c r="AD45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3621,35 +3723,35 @@
         <v>0</v>
       </c>
       <c r="E46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F46" s="3">
         <v>100</v>
       </c>
       <c r="G46" s="3">
+        <v>100</v>
+      </c>
+      <c r="H46" s="3">
         <v>200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>100</v>
       </c>
-      <c r="N46" s="3">
-        <v>0</v>
-      </c>
       <c r="O46" s="3">
         <v>0</v>
       </c>
@@ -3692,14 +3794,17 @@
       <c r="AB46" s="3">
         <v>0</v>
       </c>
-      <c r="AC46" s="3" t="s">
-        <v>4</v>
+      <c r="AC46" s="3">
+        <v>0</v>
       </c>
       <c r="AD46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3758,7 +3863,7 @@
         <v>0</v>
       </c>
       <c r="V47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W47" s="3">
         <v>100</v>
@@ -3773,19 +3878,22 @@
         <v>100</v>
       </c>
       <c r="AA47" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="AB47" s="3">
         <v>500</v>
       </c>
-      <c r="AC47" s="3" t="s">
-        <v>4</v>
+      <c r="AC47" s="3">
+        <v>500</v>
       </c>
       <c r="AD47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3807,14 +3915,14 @@
       <c r="I48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J48" s="3">
-        <v>100</v>
+      <c r="J48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K48" s="3">
         <v>100</v>
       </c>
       <c r="L48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M48" s="3">
         <v>0</v>
@@ -3864,19 +3972,22 @@
       <c r="AB48" s="3">
         <v>0</v>
       </c>
-      <c r="AC48" s="3" t="s">
-        <v>4</v>
+      <c r="AC48" s="3">
+        <v>0</v>
       </c>
       <c r="AD48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E49" s="3">
         <v>200</v>
@@ -3893,8 +4004,8 @@
       <c r="I49" s="3">
         <v>200</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>4</v>
+      <c r="J49" s="3">
+        <v>200</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>4</v>
@@ -3911,8 +4022,8 @@
       <c r="O49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P49" s="3">
-        <v>0</v>
+      <c r="P49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q49" s="3">
         <v>0</v>
@@ -3956,8 +4067,11 @@
       <c r="AD49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4042,8 +4156,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4128,8 +4245,11 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4214,8 +4334,11 @@
       <c r="AD52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4300,8 +4423,11 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -4315,29 +4441,29 @@
         <v>300</v>
       </c>
       <c r="G54" s="3">
+        <v>300</v>
+      </c>
+      <c r="H54" s="3">
         <v>400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>700</v>
-      </c>
-      <c r="J54" s="3">
-        <v>600</v>
       </c>
       <c r="K54" s="3">
         <v>600</v>
       </c>
       <c r="L54" s="3">
+        <v>600</v>
+      </c>
+      <c r="M54" s="3">
         <v>200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>100</v>
       </c>
-      <c r="N54" s="3">
-        <v>0</v>
-      </c>
       <c r="O54" s="3">
         <v>0</v>
       </c>
@@ -4360,34 +4486,37 @@
         <v>0</v>
       </c>
       <c r="V54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W54" s="3">
         <v>100</v>
       </c>
       <c r="X54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Y54" s="3">
         <v>200</v>
       </c>
       <c r="Z54" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA54" s="3">
         <v>100</v>
-      </c>
-      <c r="AA54" s="3">
-        <v>500</v>
       </c>
       <c r="AB54" s="3">
         <v>500</v>
       </c>
-      <c r="AC54" s="3" t="s">
-        <v>4</v>
+      <c r="AC54" s="3">
+        <v>500</v>
       </c>
       <c r="AD54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4418,8 +4547,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4450,13 +4580,14 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E57" s="3">
         <v>100</v>
@@ -4465,7 +4596,7 @@
         <v>100</v>
       </c>
       <c r="G57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H57" s="3">
         <v>0</v>
@@ -4486,7 +4617,7 @@
         <v>0</v>
       </c>
       <c r="N57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O57" s="3">
         <v>100</v>
@@ -4504,7 +4635,7 @@
         <v>100</v>
       </c>
       <c r="T57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U57" s="3">
         <v>0</v>
@@ -4530,14 +4661,17 @@
       <c r="AB57" s="3">
         <v>0</v>
       </c>
-      <c r="AC57" s="3" t="s">
-        <v>4</v>
+      <c r="AC57" s="3">
+        <v>0</v>
       </c>
       <c r="AD57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4557,22 +4691,22 @@
         <v>800</v>
       </c>
       <c r="I58" s="3">
+        <v>800</v>
+      </c>
+      <c r="J58" s="3">
         <v>700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>200</v>
-      </c>
-      <c r="L58" s="3">
-        <v>100</v>
       </c>
       <c r="M58" s="3">
         <v>100</v>
       </c>
       <c r="N58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O58" s="3">
         <v>200</v>
@@ -4590,13 +4724,13 @@
         <v>200</v>
       </c>
       <c r="T58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U58" s="3">
         <v>100</v>
       </c>
       <c r="V58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W58" s="3">
         <v>0</v>
@@ -4611,30 +4745,33 @@
         <v>0</v>
       </c>
       <c r="AA58" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="AB58" s="3">
         <v>400</v>
       </c>
-      <c r="AC58" s="3" t="s">
-        <v>4</v>
+      <c r="AC58" s="3">
+        <v>400</v>
       </c>
       <c r="AD58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>4</v>
+      <c r="D59" s="3">
+        <v>200</v>
       </c>
       <c r="E59" s="3">
         <v>200</v>
       </c>
       <c r="F59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G59" s="3">
         <v>100</v>
@@ -4649,7 +4786,7 @@
         <v>100</v>
       </c>
       <c r="K59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L59" s="3">
         <v>0</v>
@@ -4664,11 +4801,11 @@
         <v>0</v>
       </c>
       <c r="P59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3">
         <v>100</v>
       </c>
-      <c r="Q59" s="3">
-        <v>0</v>
-      </c>
       <c r="R59" s="3">
         <v>0</v>
       </c>
@@ -4681,8 +4818,8 @@
       <c r="U59" s="3">
         <v>0</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>4</v>
+      <c r="V59" s="3">
+        <v>0</v>
       </c>
       <c r="W59" s="3" t="s">
         <v>4</v>
@@ -4690,8 +4827,8 @@
       <c r="X59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y59" s="3">
-        <v>0</v>
+      <c r="Y59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z59" s="3">
         <v>0</v>
@@ -4708,43 +4845,46 @@
       <c r="AD59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E60" s="3">
         <v>1100</v>
-      </c>
-      <c r="E60" s="3">
-        <v>1000</v>
       </c>
       <c r="F60" s="3">
         <v>1000</v>
       </c>
       <c r="G60" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="H60" s="3">
         <v>900</v>
       </c>
       <c r="I60" s="3">
+        <v>900</v>
+      </c>
+      <c r="J60" s="3">
         <v>800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>200</v>
-      </c>
-      <c r="L60" s="3">
-        <v>100</v>
       </c>
       <c r="M60" s="3">
         <v>100</v>
       </c>
       <c r="N60" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="O60" s="3">
         <v>300</v>
@@ -4762,13 +4902,13 @@
         <v>300</v>
       </c>
       <c r="T60" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="U60" s="3">
         <v>100</v>
       </c>
       <c r="V60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W60" s="3">
         <v>0</v>
@@ -4783,19 +4923,22 @@
         <v>0</v>
       </c>
       <c r="AA60" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="AB60" s="3">
         <v>400</v>
       </c>
-      <c r="AC60" s="3" t="s">
-        <v>4</v>
+      <c r="AC60" s="3">
+        <v>400</v>
       </c>
       <c r="AD60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4880,8 +5023,11 @@
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4966,8 +5112,11 @@
       <c r="AD62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5052,8 +5201,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5138,8 +5290,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5224,43 +5379,46 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>4</v>
+      <c r="D66" s="3">
+        <v>1200</v>
       </c>
       <c r="E66" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="F66" s="3">
         <v>1000</v>
       </c>
       <c r="G66" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="H66" s="3">
         <v>900</v>
       </c>
       <c r="I66" s="3">
+        <v>900</v>
+      </c>
+      <c r="J66" s="3">
         <v>800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>200</v>
-      </c>
-      <c r="L66" s="3">
-        <v>100</v>
       </c>
       <c r="M66" s="3">
         <v>100</v>
       </c>
       <c r="N66" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="O66" s="3">
         <v>300</v>
@@ -5278,13 +5436,13 @@
         <v>300</v>
       </c>
       <c r="T66" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="U66" s="3">
         <v>100</v>
       </c>
       <c r="V66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W66" s="3">
         <v>0</v>
@@ -5299,19 +5457,22 @@
         <v>0</v>
       </c>
       <c r="AA66" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="AB66" s="3">
         <v>400</v>
       </c>
-      <c r="AC66" s="3" t="s">
-        <v>4</v>
+      <c r="AC66" s="3">
+        <v>400</v>
       </c>
       <c r="AD66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5342,8 +5503,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5428,8 +5590,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5514,8 +5679,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5600,8 +5768,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5686,94 +5857,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-9500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-9400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-9200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-9000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-8700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-8100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-7800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-7000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-6300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-6000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-5300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-4900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-4400</v>
-      </c>
-      <c r="R72" s="3">
-        <v>-4000</v>
       </c>
       <c r="S72" s="3">
         <v>-4000</v>
       </c>
       <c r="T72" s="3">
-        <v>-3500</v>
+        <v>-4000</v>
       </c>
       <c r="U72" s="3">
         <v>-3500</v>
       </c>
       <c r="V72" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="W72" s="3">
         <v>-3300</v>
-      </c>
-      <c r="W72" s="3">
-        <v>-3200</v>
       </c>
       <c r="X72" s="3">
         <v>-3200</v>
       </c>
       <c r="Y72" s="3">
-        <v>-3100</v>
+        <v>-3200</v>
       </c>
       <c r="Z72" s="3">
         <v>-3100</v>
       </c>
       <c r="AA72" s="3">
-        <v>-3000</v>
+        <v>-3100</v>
       </c>
       <c r="AB72" s="3">
         <v>-3000</v>
       </c>
-      <c r="AC72" s="3" t="s">
-        <v>4</v>
+      <c r="AC72" s="3">
+        <v>-3000</v>
       </c>
       <c r="AD72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5858,8 +6035,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5944,8 +6124,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6030,43 +6213,46 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E76" s="3">
         <v>-800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>400</v>
       </c>
-      <c r="L76" s="3">
-        <v>0</v>
-      </c>
       <c r="M76" s="3">
         <v>0</v>
       </c>
       <c r="N76" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="O76" s="3">
         <v>-300</v>
@@ -6075,34 +6261,34 @@
         <v>-300</v>
       </c>
       <c r="Q76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R76" s="3">
         <v>-200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-200</v>
-      </c>
-      <c r="T76" s="3">
-        <v>-100</v>
       </c>
       <c r="U76" s="3">
         <v>-100</v>
       </c>
       <c r="V76" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="W76" s="3">
         <v>100</v>
       </c>
       <c r="X76" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Y76" s="3">
         <v>200</v>
       </c>
       <c r="Z76" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AA76" s="3">
         <v>100</v>
@@ -6110,14 +6296,17 @@
       <c r="AB76" s="3">
         <v>100</v>
       </c>
-      <c r="AC76" s="3" t="s">
-        <v>4</v>
+      <c r="AC76" s="3">
+        <v>100</v>
       </c>
       <c r="AD76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6202,174 +6391,180 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42551</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>-100</v>
       </c>
       <c r="E81" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F81" s="3">
         <v>-200</v>
       </c>
       <c r="G81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H81" s="3">
         <v>-300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-600</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-400</v>
       </c>
       <c r="O81" s="3">
         <v>-400</v>
       </c>
       <c r="P81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-400</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
       <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
         <v>-400</v>
       </c>
-      <c r="T81" s="3">
-        <v>0</v>
-      </c>
       <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
         <v>-300</v>
       </c>
-      <c r="V81" s="3">
-        <v>0</v>
-      </c>
       <c r="W81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X81" s="3">
         <v>-100</v>
       </c>
       <c r="Y81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA81" s="3">
         <v>-100</v>
       </c>
-      <c r="AA81" s="3">
-        <v>0</v>
-      </c>
       <c r="AB81" s="3">
         <v>0</v>
       </c>
@@ -6379,8 +6574,11 @@
       <c r="AD81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6411,8 +6609,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6497,8 +6696,11 @@
       <c r="AD83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6583,8 +6785,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6669,8 +6874,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6755,8 +6963,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6841,8 +7052,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6927,8 +7141,11 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6942,10 +7159,10 @@
         <v>-100</v>
       </c>
       <c r="G89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H89" s="3">
         <v>-200</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-100</v>
       </c>
       <c r="I89" s="3">
         <v>-100</v>
@@ -6969,34 +7186,34 @@
         <v>-100</v>
       </c>
       <c r="P89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q89" s="3">
         <v>0</v>
       </c>
       <c r="R89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S89" s="3">
         <v>-100</v>
       </c>
       <c r="T89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
         <v>-200</v>
       </c>
-      <c r="V89" s="3">
-        <v>0</v>
-      </c>
       <c r="W89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X89" s="3">
         <v>-100</v>
       </c>
       <c r="Y89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z89" s="3">
         <v>0</v>
@@ -7013,8 +7230,11 @@
       <c r="AD89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7045,8 +7265,9 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7066,11 +7287,11 @@
         <v>0</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
@@ -7131,8 +7352,11 @@
       <c r="AD91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7217,8 +7441,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7303,8 +7530,11 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7324,11 +7554,11 @@
         <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
@@ -7347,8 +7577,8 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>4</v>
+      <c r="Q94" s="3">
+        <v>0</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>4</v>
@@ -7359,12 +7589,12 @@
       <c r="T94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U94" s="3">
+      <c r="U94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V94" s="3">
         <v>100</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
       <c r="W94" s="3">
         <v>0</v>
       </c>
@@ -7372,25 +7602,28 @@
         <v>0</v>
       </c>
       <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
         <v>100</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>300</v>
       </c>
-      <c r="AA94" s="3">
-        <v>0</v>
-      </c>
       <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC94" s="3">
         <v>-300</v>
       </c>
-      <c r="AC94" s="3">
-        <v>0</v>
-      </c>
       <c r="AD94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7421,8 +7654,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7507,8 +7741,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7593,8 +7830,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7679,8 +7919,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7765,8 +8008,11 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7777,38 +8023,38 @@
         <v>100</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
       <c r="H100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I100" s="3">
         <v>100</v>
       </c>
       <c r="J100" s="3">
+        <v>100</v>
+      </c>
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
@@ -7816,43 +8062,46 @@
         <v>0</v>
       </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>200</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>100</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
       <c r="W100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X100" s="3">
         <v>100</v>
       </c>
       <c r="Y100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
         <v>-200</v>
       </c>
-      <c r="AA100" s="3">
-        <v>0</v>
-      </c>
       <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC100" s="3">
         <v>300</v>
       </c>
-      <c r="AC100" s="3">
-        <v>0</v>
-      </c>
       <c r="AD100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7937,8 +8186,11 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7949,29 +8201,29 @@
         <v>0</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>100</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
@@ -8021,6 +8273,9 @@
         <v>0</v>
       </c>
       <c r="AD102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE102" s="3">
         <v>0</v>
       </c>
     </row>
